--- a/new-data/area_report_by_year.xlsx
+++ b/new-data/area_report_by_year.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10402"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7529E3-9A9A-3147-9794-CAAE41DA8CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5B03E2-4757-1747-BAA8-66F471570F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="760" windowWidth="28580" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="820" yWindow="740" windowWidth="28580" windowHeight="18380" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Sheet" sheetId="12" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="131">
   <si>
     <t>state</t>
   </si>
@@ -1074,7 +1074,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1112,9 +1112,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="8" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="8" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="8" applyFill="1" applyBorder="1"/>
@@ -1122,18 +1119,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="8" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="9" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="9" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="9" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1142,19 +1127,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="8" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="8" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="8" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1173,11 +1145,38 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="8" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="8" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="9" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="8" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2965,816 +2964,816 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E73D0554-E691-754D-BCAD-208097DCDC79}">
   <dimension ref="A1:P631"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="46"/>
+    <col min="1" max="16384" width="8.83203125" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:16" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
     </row>
     <row r="3" spans="1:16" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="35" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:16" s="59" customFormat="1" ht="28" x14ac:dyDescent="0.3">
-      <c r="D6" s="62" t="s">
+    <row r="5" spans="1:16" s="34" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:16" s="49" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="D6" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-    </row>
-    <row r="7" spans="1:16" s="36" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-    </row>
-    <row r="8" spans="1:16" s="61" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="64" t="s">
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+    </row>
+    <row r="7" spans="1:16" s="35" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+    </row>
+    <row r="8" spans="1:16" s="51" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="58" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="63"/>
-    </row>
-    <row r="9" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-    </row>
-    <row r="10" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D10" s="54" t="s">
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="53"/>
+    </row>
+    <row r="9" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="44"/>
+      <c r="L9" s="44"/>
+      <c r="M9" s="44"/>
+      <c r="N9" s="44"/>
+      <c r="O9" s="44"/>
+      <c r="P9" s="44"/>
+    </row>
+    <row r="10" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-    </row>
-    <row r="11" spans="1:16" s="38" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D11" s="40" t="s">
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+    </row>
+    <row r="11" spans="1:16" s="37" customFormat="1" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="42"/>
-    </row>
-    <row r="12" spans="1:16" s="38" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="43" t="s">
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="63"/>
+    </row>
+    <row r="12" spans="1:16" s="37" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="47"/>
-    </row>
-    <row r="13" spans="1:16" s="47" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="D13" s="55" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="42"/>
+    </row>
+    <row r="13" spans="1:16" s="42" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="D13" s="64" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="53"/>
-    </row>
-    <row r="14" spans="1:16" s="38" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
-    </row>
-    <row r="15" spans="1:16" s="49" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="44" t="s">
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="66"/>
+    </row>
+    <row r="14" spans="1:16" s="37" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="48"/>
+    </row>
+    <row r="15" spans="1:16" s="44" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="45" t="s">
+    <row r="16" spans="1:16" s="37" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="19" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="20" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="67" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="68" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="69" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="70" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="71" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="72" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="73" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="74" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="75" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="76" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="77" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="79" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="80" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="123" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="124" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="125" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="126" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="127" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="128" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="129" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="130" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="131" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="132" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="133" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="134" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="135" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="136" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="137" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="138" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="139" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="140" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="141" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="142" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="143" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="144" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="145" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="146" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="147" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="148" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="149" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="150" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="151" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="152" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="153" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="154" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="155" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="156" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="157" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="158" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="159" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="160" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="161" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="162" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="163" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="164" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="165" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="166" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="167" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="168" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="169" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="170" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="171" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="172" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="173" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="174" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="175" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="176" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="177" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="178" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="179" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="180" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="181" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="182" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="183" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="184" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="185" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="186" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="187" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="188" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="189" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="190" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="191" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="192" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="193" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="194" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="195" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="196" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="197" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="198" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="199" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="200" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="201" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="202" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="203" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="204" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="205" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="206" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="207" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="208" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="209" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="210" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="211" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="212" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="213" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="214" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="215" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="216" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="217" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="218" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="219" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="220" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="221" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="222" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="223" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="224" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="225" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="226" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="227" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="228" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="229" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="230" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="231" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="232" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="233" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="234" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="235" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="236" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="237" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="238" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="239" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="240" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="241" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="242" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="243" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="244" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="245" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="246" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="247" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="248" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="250" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="251" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="252" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="253" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="254" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="255" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="256" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="257" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="258" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="259" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="260" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="261" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="262" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="263" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="264" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="265" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="266" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="267" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="268" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="269" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="270" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="271" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="272" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="273" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="274" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="275" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="276" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="277" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="278" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="279" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="280" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="281" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="282" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="283" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="284" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="285" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="286" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="287" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="288" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="289" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="290" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="291" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="292" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="293" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="294" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="295" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="296" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="297" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="298" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="299" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="300" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="301" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="302" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="303" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="304" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="305" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="306" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="307" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="308" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="309" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="310" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="311" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="312" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="313" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="314" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="315" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="316" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="317" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="318" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="319" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="320" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="321" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="322" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="323" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="324" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="325" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="326" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="327" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="328" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="329" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="330" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="331" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="332" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="333" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="334" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="335" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="336" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="337" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="338" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="339" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="340" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="341" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="342" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="343" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="344" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="345" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="346" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="347" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="348" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="349" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="350" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="351" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="352" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="353" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="354" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="355" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="356" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="357" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="358" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="359" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="360" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="361" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="362" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="363" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="364" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="365" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="366" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="367" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="368" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="369" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="370" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="371" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="372" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="373" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="374" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="375" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="376" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="377" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="378" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="379" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="380" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="381" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="382" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="383" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="384" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="385" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="386" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="387" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="388" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="389" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="390" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="391" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="392" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="393" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="394" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="395" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="396" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="397" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="398" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="399" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="400" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="401" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="402" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="403" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="404" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="405" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="406" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="407" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="408" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="409" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="410" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="411" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="412" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="413" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="414" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="415" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="416" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="417" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="418" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="419" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="420" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="421" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="422" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="423" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="424" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="425" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="426" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="427" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="428" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="429" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="430" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="431" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="432" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="433" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="434" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="435" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="436" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="437" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="438" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="439" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="440" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="441" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="442" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="443" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="444" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="445" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="446" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="447" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="448" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="449" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="450" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="451" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="452" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="453" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="454" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="455" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="456" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="457" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="458" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="459" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="460" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="461" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="462" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="463" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="464" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="465" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="466" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="467" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="468" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="469" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="470" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="471" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="472" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="473" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="474" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="475" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="476" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="477" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="478" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="479" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="480" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="481" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="482" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="483" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="484" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="485" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="486" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="487" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="488" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="489" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="490" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="491" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="492" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="493" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="494" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="495" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="496" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="497" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="498" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="499" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="500" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="501" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="502" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="503" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="504" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="505" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="506" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="507" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="508" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="509" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="510" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="511" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="512" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="513" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="514" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="515" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="516" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="517" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="518" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="519" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="520" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="521" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="522" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="523" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="524" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="525" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="526" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="527" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="528" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="529" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="530" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="531" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="532" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="533" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="534" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="535" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="536" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="537" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="538" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="539" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="540" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="541" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="542" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="543" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="544" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="545" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="546" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="547" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="548" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="549" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="550" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="551" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="552" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="553" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="554" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="555" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="556" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="557" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="558" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="559" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="560" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="561" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="562" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="563" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="564" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="565" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="566" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="567" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="568" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="569" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="570" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="571" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="572" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="573" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="574" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="575" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="576" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="577" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="578" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="579" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="580" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="581" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="582" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="583" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="584" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="585" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="586" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="587" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="588" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="589" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="590" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="591" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="592" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="593" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="594" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="595" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="596" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="597" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="598" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="599" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="600" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="601" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="602" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="603" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="604" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="605" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="606" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="607" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="608" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="609" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="610" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="611" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="612" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="613" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="614" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="615" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="616" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="617" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="618" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="619" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="620" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="621" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="622" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="623" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="624" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="625" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="626" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="627" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="628" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="629" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="630" s="38" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="631" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="35" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="36" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="38" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="39" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="41" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="42" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="43" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="44" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="45" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="46" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="48" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="49" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="50" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="51" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="52" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="53" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="54" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="55" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="56" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="57" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="58" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="59" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="60" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="61" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="62" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="63" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="64" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="65" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="66" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="67" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="68" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="69" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="70" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="71" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="72" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="73" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="74" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="75" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="76" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="77" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="79" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="82" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="83" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="84" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="85" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="86" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="87" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="88" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="89" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="90" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="91" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="92" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="93" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="94" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="99" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="100" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="102" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="103" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="105" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="106" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="107" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="108" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="109" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="110" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="111" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="112" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="113" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="114" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="115" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="116" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="117" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="118" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="119" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="120" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="122" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="123" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="124" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="125" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="126" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="127" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="128" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="130" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="131" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="132" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="133" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="134" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="135" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="136" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="137" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="139" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="140" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="141" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="142" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="143" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="144" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="145" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="146" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="147" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="148" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="150" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="151" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="153" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="154" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="155" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="156" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="157" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="158" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="159" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="160" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="161" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="162" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="163" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="164" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="165" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="166" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="167" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="168" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="169" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="170" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="171" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="173" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="174" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="176" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="177" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="178" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="179" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="181" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="182" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="183" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="185" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="186" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="187" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="190" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="191" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="192" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="193" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="194" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="195" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="196" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="197" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="198" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="199" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="200" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="201" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="202" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="203" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="204" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="205" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="207" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="208" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="209" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="210" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="211" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="212" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="213" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="214" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="215" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="216" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="217" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="218" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="219" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="220" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="221" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="222" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="223" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="224" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="225" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="226" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="227" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="228" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="229" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="230" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="231" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="232" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="233" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="234" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="235" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="236" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="237" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="238" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="239" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="240" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="241" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="242" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="243" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="244" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="245" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="246" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="247" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="248" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="250" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="251" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="252" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="253" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="254" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="255" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="257" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="258" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="259" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="261" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="262" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="263" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="264" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="265" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="266" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="267" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="268" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="269" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="270" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="271" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="272" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="273" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="274" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="275" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="276" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="277" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="278" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="279" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="280" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="281" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="282" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="283" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="284" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="285" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="286" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="287" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="288" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="289" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="290" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="291" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="293" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="294" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="295" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="296" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="297" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="298" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="299" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="300" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="301" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="302" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="303" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="304" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="305" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="306" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="307" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="308" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="309" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="310" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="311" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="312" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="313" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="314" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="315" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="316" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="317" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="318" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="319" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="320" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="321" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="322" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="323" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="324" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="325" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="326" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="327" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="328" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="329" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="330" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="331" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="332" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="333" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="334" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="335" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="336" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="337" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="338" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="339" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="340" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="341" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="342" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="343" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="344" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="345" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="346" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="347" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="348" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="349" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="350" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="351" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="352" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="353" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="354" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="355" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="356" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="357" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="358" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="359" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="360" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="361" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="362" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="363" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="364" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="365" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="366" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="367" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="368" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="369" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="370" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="371" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="372" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="373" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="374" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="375" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="376" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="377" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="378" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="379" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="380" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="381" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="382" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="383" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="384" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="385" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="386" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="387" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="388" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="389" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="390" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="391" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="392" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="393" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="394" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="395" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="396" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="397" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="398" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="399" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="400" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="401" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="402" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="403" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="404" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="405" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="406" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="407" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="408" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="409" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="410" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="411" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="412" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="413" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="414" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="415" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="416" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="417" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="418" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="419" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="420" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="421" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="422" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="423" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="424" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="425" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="426" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="427" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="428" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="429" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="430" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="431" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="432" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="433" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="434" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="435" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="436" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="437" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="438" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="439" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="440" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="441" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="442" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="443" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="444" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="445" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="446" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="447" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="448" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="449" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="450" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="451" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="452" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="453" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="454" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="455" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="456" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="457" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="458" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="459" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="460" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="461" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="462" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="463" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="464" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="465" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="466" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="467" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="468" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="469" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="470" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="471" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="472" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="473" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="474" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="475" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="476" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="477" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="478" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="479" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="480" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="481" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="482" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="483" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="484" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="485" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="486" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="487" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="488" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="489" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="490" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="491" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="492" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="493" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="494" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="495" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="496" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="497" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="498" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="499" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="500" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="501" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="502" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="503" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="504" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="505" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="506" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="507" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="508" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="509" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="510" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="511" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="512" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="513" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="514" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="515" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="516" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="517" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="518" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="519" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="520" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="521" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="522" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="523" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="524" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="525" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="526" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="527" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="528" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="529" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="530" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="531" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="532" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="533" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="534" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="535" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="536" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="537" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="538" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="539" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="540" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="541" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="542" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="543" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="544" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="545" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="546" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="547" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="548" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="549" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="550" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="551" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="552" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="553" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="554" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="555" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="556" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="557" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="558" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="559" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="560" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="561" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="562" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="563" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="564" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="565" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="566" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="567" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="568" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="569" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="570" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="571" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="572" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="573" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="574" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="575" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="576" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="577" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="578" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="579" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="580" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="581" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="582" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="583" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="584" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="585" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="586" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="587" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="588" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="589" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="590" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="591" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="592" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="593" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="594" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="595" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="596" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="597" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="598" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="599" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="600" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="601" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="602" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="603" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="604" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="605" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="606" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="607" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="608" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="609" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="610" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="611" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="612" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="613" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="614" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="615" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="616" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="617" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="618" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="619" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="620" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="621" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="622" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="623" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="624" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="625" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="626" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="627" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="628" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="629" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="630" s="37" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="631" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="D2:K3"/>
@@ -3819,33 +3818,33 @@
   <sheetData>
     <row r="1" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:23" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>118</v>
@@ -7715,33 +7714,33 @@
   <sheetData>
     <row r="1" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:23" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>118</v>
@@ -11611,33 +11610,33 @@
   <sheetData>
     <row r="1" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:23" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>118</v>
@@ -15506,34 +15505,34 @@
   <sheetData>
     <row r="1" spans="1:11" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:11" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:11" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="67" t="s">
+      <c r="B3" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:11" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:11" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>118</v>
@@ -15753,33 +15752,33 @@
   <sheetData>
     <row r="1" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:23" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>118</v>
@@ -19633,13 +19632,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W58"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="5" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD5"/>
+      <selection pane="bottomRight" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -19652,3774 +19651,3845 @@
   <sheetData>
     <row r="1" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:23" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="23">
-        <v>3480</v>
-      </c>
-      <c r="C6" s="13">
-        <v>3390</v>
-      </c>
-      <c r="D6" s="13">
-        <v>3590</v>
-      </c>
-      <c r="E6" s="13">
-        <v>3620</v>
-      </c>
-      <c r="F6" s="13">
-        <v>3800</v>
-      </c>
-      <c r="G6" s="13">
-        <v>3780</v>
-      </c>
-      <c r="H6" s="13">
-        <v>3620</v>
-      </c>
-      <c r="I6" s="13">
-        <v>3680</v>
-      </c>
-      <c r="J6" s="13">
-        <v>3790</v>
-      </c>
-      <c r="K6" s="13">
-        <v>4140</v>
-      </c>
-      <c r="L6" s="13">
-        <v>4270</v>
-      </c>
-      <c r="M6" s="13">
-        <v>4690</v>
-      </c>
-      <c r="N6" s="13">
-        <v>4990</v>
-      </c>
-      <c r="O6" s="13">
-        <v>5070</v>
-      </c>
-      <c r="P6" s="13">
-        <v>5010</v>
-      </c>
-      <c r="Q6" s="13">
-        <v>4920</v>
-      </c>
-      <c r="R6" s="20">
-        <v>4960</v>
-      </c>
-      <c r="S6" s="20">
-        <v>5050</v>
-      </c>
-      <c r="T6" s="23">
-        <v>5350</v>
-      </c>
-      <c r="U6" s="23">
-        <v>5660</v>
-      </c>
-      <c r="V6" s="23">
-        <v>5860</v>
-      </c>
-      <c r="W6" s="13">
-        <v>5810</v>
+        <v>0</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="P6" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="R6" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="T6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="U6" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="V6" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="23">
-        <v>2910</v>
+        <v>3480</v>
       </c>
       <c r="C7" s="13">
-        <v>2970</v>
+        <v>3390</v>
       </c>
       <c r="D7" s="13">
-        <v>3100</v>
+        <v>3590</v>
       </c>
       <c r="E7" s="13">
-        <v>3320</v>
+        <v>3620</v>
       </c>
       <c r="F7" s="13">
-        <v>3540</v>
+        <v>3800</v>
       </c>
       <c r="G7" s="13">
-        <v>3520</v>
+        <v>3780</v>
       </c>
       <c r="H7" s="13">
-        <v>3170</v>
+        <v>3620</v>
       </c>
       <c r="I7" s="13">
-        <v>3130</v>
+        <v>3680</v>
       </c>
       <c r="J7" s="13">
-        <v>3220</v>
+        <v>3790</v>
       </c>
       <c r="K7" s="13">
-        <v>3480</v>
+        <v>4140</v>
       </c>
       <c r="L7" s="13">
-        <v>3590</v>
+        <v>4270</v>
       </c>
       <c r="M7" s="13">
-        <v>3910</v>
+        <v>4690</v>
       </c>
       <c r="N7" s="13">
-        <v>4200</v>
+        <v>4990</v>
       </c>
       <c r="O7" s="13">
-        <v>4500</v>
+        <v>5070</v>
       </c>
       <c r="P7" s="13">
-        <v>4780</v>
+        <v>5010</v>
       </c>
       <c r="Q7" s="13">
+        <v>4920</v>
+      </c>
+      <c r="R7" s="20">
         <v>4960</v>
       </c>
-      <c r="R7" s="20">
-        <v>5150</v>
-      </c>
       <c r="S7" s="20">
-        <v>5330</v>
+        <v>5050</v>
       </c>
       <c r="T7" s="23">
-        <v>5550</v>
+        <v>5350</v>
       </c>
       <c r="U7" s="23">
-        <v>5900</v>
+        <v>5660</v>
       </c>
       <c r="V7" s="23">
-        <v>6130</v>
+        <v>5860</v>
       </c>
       <c r="W7" s="13">
-        <v>6220</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="23">
-        <v>3070</v>
+        <v>2910</v>
       </c>
       <c r="C8" s="13">
-        <v>2960</v>
+        <v>2970</v>
       </c>
       <c r="D8" s="13">
-        <v>3190</v>
+        <v>3100</v>
       </c>
       <c r="E8" s="13">
-        <v>3280</v>
+        <v>3320</v>
       </c>
       <c r="F8" s="13">
-        <v>3400</v>
+        <v>3540</v>
       </c>
       <c r="G8" s="13">
-        <v>3400</v>
+        <v>3520</v>
       </c>
       <c r="H8" s="13">
-        <v>3190</v>
+        <v>3170</v>
       </c>
       <c r="I8" s="13">
-        <v>3140</v>
+        <v>3130</v>
       </c>
       <c r="J8" s="13">
-        <v>3310</v>
+        <v>3220</v>
       </c>
       <c r="K8" s="13">
-        <v>3640</v>
+        <v>3480</v>
       </c>
       <c r="L8" s="13">
-        <v>3830</v>
+        <v>3590</v>
       </c>
       <c r="M8" s="13">
+        <v>3910</v>
+      </c>
+      <c r="N8" s="13">
         <v>4200</v>
       </c>
-      <c r="N8" s="13">
-        <v>4640</v>
-      </c>
       <c r="O8" s="13">
-        <v>4970</v>
+        <v>4500</v>
       </c>
       <c r="P8" s="13">
-        <v>5240</v>
+        <v>4780</v>
       </c>
       <c r="Q8" s="13">
-        <v>5380</v>
+        <v>4960</v>
       </c>
       <c r="R8" s="20">
-        <v>5520</v>
+        <v>5150</v>
       </c>
       <c r="S8" s="20">
-        <v>5760</v>
+        <v>5330</v>
       </c>
       <c r="T8" s="23">
-        <v>5990</v>
+        <v>5550</v>
       </c>
       <c r="U8" s="23">
-        <v>5980</v>
+        <v>5900</v>
       </c>
       <c r="V8" s="23">
-        <v>6150</v>
+        <v>6130</v>
       </c>
       <c r="W8" s="13">
-        <v>6330</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="23">
-        <v>3420</v>
+        <v>3070</v>
       </c>
       <c r="C9" s="13">
-        <v>3800</v>
+        <v>2960</v>
       </c>
       <c r="D9" s="13">
-        <v>4030</v>
+        <v>3190</v>
       </c>
       <c r="E9" s="13">
-        <v>4220</v>
+        <v>3280</v>
       </c>
       <c r="F9" s="13">
-        <v>4350</v>
+        <v>3400</v>
       </c>
       <c r="G9" s="13">
-        <v>4190</v>
+        <v>3400</v>
       </c>
       <c r="H9" s="13">
-        <v>3610</v>
+        <v>3190</v>
       </c>
       <c r="I9" s="13">
-        <v>3290</v>
+        <v>3140</v>
       </c>
       <c r="J9" s="13">
-        <v>3330</v>
+        <v>3310</v>
       </c>
       <c r="K9" s="13">
-        <v>3540</v>
+        <v>3640</v>
       </c>
       <c r="L9" s="13">
-        <v>3710</v>
+        <v>3830</v>
       </c>
       <c r="M9" s="13">
-        <v>4050</v>
+        <v>4200</v>
       </c>
       <c r="N9" s="13">
-        <v>4480</v>
+        <v>4640</v>
       </c>
       <c r="O9" s="13">
-        <v>4750</v>
+        <v>4970</v>
       </c>
       <c r="P9" s="13">
-        <v>4890</v>
+        <v>5240</v>
       </c>
       <c r="Q9" s="13">
-        <v>5200</v>
+        <v>5380</v>
       </c>
       <c r="R9" s="20">
-        <v>5350</v>
+        <v>5520</v>
       </c>
       <c r="S9" s="20">
-        <v>5480</v>
+        <v>5760</v>
       </c>
       <c r="T9" s="23">
-        <v>5780</v>
+        <v>5990</v>
       </c>
       <c r="U9" s="23">
-        <v>6040</v>
+        <v>5980</v>
       </c>
       <c r="V9" s="23">
-        <v>6120</v>
+        <v>6150</v>
       </c>
       <c r="W9" s="13">
-        <v>6130</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A10" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="23">
-        <v>3150</v>
+        <v>3420</v>
       </c>
       <c r="C10" s="13">
-        <v>3300</v>
+        <v>3800</v>
       </c>
       <c r="D10" s="13">
-        <v>3530</v>
+        <v>4030</v>
       </c>
       <c r="E10" s="13">
-        <v>3640</v>
+        <v>4220</v>
       </c>
       <c r="F10" s="13">
-        <v>3550</v>
+        <v>4350</v>
       </c>
       <c r="G10" s="13">
-        <v>3450</v>
+        <v>4190</v>
       </c>
       <c r="H10" s="13">
-        <v>3020</v>
+        <v>3610</v>
       </c>
       <c r="I10" s="13">
-        <v>2770</v>
+        <v>3290</v>
       </c>
       <c r="J10" s="13">
-        <v>2770</v>
+        <v>3330</v>
       </c>
       <c r="K10" s="13">
-        <v>2950</v>
+        <v>3540</v>
       </c>
       <c r="L10" s="13">
-        <v>3130</v>
+        <v>3710</v>
       </c>
       <c r="M10" s="13">
-        <v>3420</v>
+        <v>4050</v>
       </c>
       <c r="N10" s="13">
-        <v>3820</v>
+        <v>4480</v>
       </c>
       <c r="O10" s="13">
-        <v>4140</v>
+        <v>4750</v>
       </c>
       <c r="P10" s="13">
-        <v>4380</v>
+        <v>4890</v>
       </c>
       <c r="Q10" s="13">
-        <v>4580</v>
+        <v>5200</v>
       </c>
       <c r="R10" s="20">
-        <v>4710</v>
+        <v>5350</v>
       </c>
       <c r="S10" s="20">
-        <v>4710</v>
+        <v>5480</v>
       </c>
       <c r="T10" s="23">
-        <v>4940</v>
+        <v>5780</v>
       </c>
       <c r="U10" s="23">
-        <v>5260</v>
+        <v>6040</v>
       </c>
       <c r="V10" s="23">
-        <v>5430</v>
+        <v>6120</v>
       </c>
       <c r="W10" s="13">
-        <v>5370</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A11" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="23">
+        <v>3150</v>
+      </c>
+      <c r="C11" s="13">
+        <v>3300</v>
+      </c>
+      <c r="D11" s="13">
+        <v>3530</v>
+      </c>
+      <c r="E11" s="13">
+        <v>3640</v>
+      </c>
+      <c r="F11" s="13">
+        <v>3550</v>
+      </c>
+      <c r="G11" s="13">
+        <v>3450</v>
+      </c>
+      <c r="H11" s="13">
+        <v>3020</v>
+      </c>
+      <c r="I11" s="13">
+        <v>2770</v>
+      </c>
+      <c r="J11" s="13">
+        <v>2770</v>
+      </c>
+      <c r="K11" s="13">
+        <v>2950</v>
+      </c>
+      <c r="L11" s="13">
         <v>3130</v>
       </c>
-      <c r="C11" s="13">
-        <v>3230</v>
-      </c>
-      <c r="D11" s="13">
-        <v>3390</v>
-      </c>
-      <c r="E11" s="13">
-        <v>3490</v>
-      </c>
-      <c r="F11" s="13">
-        <v>3590</v>
-      </c>
-      <c r="G11" s="13">
-        <v>3620</v>
-      </c>
-      <c r="H11" s="13">
-        <v>3300</v>
-      </c>
-      <c r="I11" s="13">
-        <v>3120</v>
-      </c>
-      <c r="J11" s="13">
-        <v>3180</v>
-      </c>
-      <c r="K11" s="13">
-        <v>3390</v>
-      </c>
-      <c r="L11" s="13">
-        <v>3530</v>
-      </c>
       <c r="M11" s="13">
-        <v>3870</v>
+        <v>3420</v>
       </c>
       <c r="N11" s="13">
-        <v>4260</v>
+        <v>3820</v>
       </c>
       <c r="O11" s="13">
-        <v>4490</v>
+        <v>4140</v>
       </c>
       <c r="P11" s="13">
-        <v>4630</v>
+        <v>4380</v>
       </c>
       <c r="Q11" s="13">
-        <v>4760</v>
+        <v>4580</v>
       </c>
       <c r="R11" s="20">
-        <v>4850</v>
+        <v>4710</v>
       </c>
       <c r="S11" s="20">
-        <v>4910</v>
+        <v>4710</v>
       </c>
       <c r="T11" s="23">
-        <v>5090</v>
+        <v>4940</v>
       </c>
       <c r="U11" s="23">
-        <v>5410</v>
+        <v>5260</v>
       </c>
       <c r="V11" s="23">
-        <v>5550</v>
+        <v>5430</v>
       </c>
       <c r="W11" s="13">
-        <v>5490</v>
+        <v>5370</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A12" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="23">
-        <v>2720</v>
+        <v>3130</v>
       </c>
       <c r="C12" s="13">
-        <v>2730</v>
+        <v>3230</v>
       </c>
       <c r="D12" s="13">
-        <v>2930</v>
+        <v>3390</v>
       </c>
       <c r="E12" s="13">
-        <v>2880</v>
+        <v>3490</v>
       </c>
       <c r="F12" s="13">
-        <v>2710</v>
+        <v>3590</v>
       </c>
       <c r="G12" s="13">
-        <v>2620</v>
+        <v>3620</v>
       </c>
       <c r="H12" s="13">
-        <v>2470</v>
+        <v>3300</v>
       </c>
       <c r="I12" s="13">
-        <v>2480</v>
+        <v>3120</v>
       </c>
       <c r="J12" s="13">
-        <v>2620</v>
+        <v>3180</v>
       </c>
       <c r="K12" s="13">
-        <v>2770</v>
+        <v>3390</v>
       </c>
       <c r="L12" s="13">
-        <v>2860</v>
+        <v>3530</v>
       </c>
       <c r="M12" s="13">
-        <v>3050</v>
+        <v>3870</v>
       </c>
       <c r="N12" s="13">
-        <v>3300</v>
+        <v>4260</v>
       </c>
       <c r="O12" s="13">
-        <v>3520</v>
+        <v>4490</v>
       </c>
       <c r="P12" s="13">
-        <v>3600</v>
+        <v>4630</v>
       </c>
       <c r="Q12" s="13">
-        <v>3680</v>
+        <v>4760</v>
       </c>
       <c r="R12" s="20">
-        <v>3760</v>
+        <v>4850</v>
       </c>
       <c r="S12" s="20">
-        <v>3820</v>
+        <v>4910</v>
       </c>
       <c r="T12" s="23">
-        <v>4050</v>
+        <v>5090</v>
       </c>
       <c r="U12" s="23">
-        <v>4170</v>
+        <v>5410</v>
       </c>
       <c r="V12" s="23">
-        <v>4300</v>
+        <v>5550</v>
       </c>
       <c r="W12" s="13">
-        <v>4520</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="23">
-        <v>2050</v>
+        <v>2720</v>
       </c>
       <c r="C13" s="13">
-        <v>2030</v>
+        <v>2730</v>
       </c>
       <c r="D13" s="13">
-        <v>2390</v>
+        <v>2930</v>
       </c>
       <c r="E13" s="13">
-        <v>2440</v>
+        <v>2880</v>
       </c>
       <c r="F13" s="13">
-        <v>2350</v>
+        <v>2710</v>
       </c>
       <c r="G13" s="13">
-        <v>2250</v>
+        <v>2620</v>
       </c>
       <c r="H13" s="13">
-        <v>2120</v>
+        <v>2470</v>
       </c>
       <c r="I13" s="13">
-        <v>2080</v>
+        <v>2480</v>
       </c>
       <c r="J13" s="13">
-        <v>2140</v>
+        <v>2620</v>
       </c>
       <c r="K13" s="13">
-        <v>2280</v>
+        <v>2770</v>
       </c>
       <c r="L13" s="13">
-        <v>2340</v>
+        <v>2860</v>
       </c>
       <c r="M13" s="13">
-        <v>2420</v>
+        <v>3050</v>
       </c>
       <c r="N13" s="13">
-        <v>2670</v>
+        <v>3300</v>
       </c>
       <c r="O13" s="13">
-        <v>2930</v>
+        <v>3520</v>
       </c>
       <c r="P13" s="13">
-        <v>3010</v>
+        <v>3600</v>
       </c>
       <c r="Q13" s="13">
-        <v>3010</v>
+        <v>3680</v>
       </c>
       <c r="R13" s="20">
-        <v>3090</v>
+        <v>3760</v>
       </c>
       <c r="S13" s="20">
-        <v>3280</v>
+        <v>3820</v>
       </c>
       <c r="T13" s="23">
-        <v>3620</v>
+        <v>4050</v>
       </c>
       <c r="U13" s="23">
-        <v>3740</v>
+        <v>4170</v>
       </c>
       <c r="V13" s="23">
-        <v>3750</v>
+        <v>4300</v>
       </c>
       <c r="W13" s="13">
-        <v>3580</v>
+        <v>4520</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A14" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="23">
-        <v>3480</v>
+        <v>2050</v>
       </c>
       <c r="C14" s="13">
-        <v>3440</v>
+        <v>2030</v>
       </c>
       <c r="D14" s="13">
-        <v>3720</v>
+        <v>2390</v>
       </c>
       <c r="E14" s="13">
-        <v>3790</v>
+        <v>2440</v>
       </c>
       <c r="F14" s="13">
-        <v>3660</v>
+        <v>2350</v>
       </c>
       <c r="G14" s="13">
-        <v>3560</v>
+        <v>2250</v>
       </c>
       <c r="H14" s="13">
-        <v>3260</v>
+        <v>2120</v>
       </c>
       <c r="I14" s="13">
-        <v>3180</v>
+        <v>2080</v>
       </c>
       <c r="J14" s="13">
-        <v>3250</v>
+        <v>2140</v>
       </c>
       <c r="K14" s="13">
-        <v>3420</v>
+        <v>2280</v>
       </c>
       <c r="L14" s="13">
-        <v>3480</v>
+        <v>2340</v>
       </c>
       <c r="M14" s="13">
-        <v>3780</v>
+        <v>2420</v>
       </c>
       <c r="N14" s="13">
-        <v>4100</v>
+        <v>2670</v>
       </c>
       <c r="O14" s="13">
-        <v>4380</v>
+        <v>2930</v>
       </c>
       <c r="P14" s="13">
-        <v>4750</v>
+        <v>3010</v>
       </c>
       <c r="Q14" s="13">
-        <v>4850</v>
+        <v>3010</v>
       </c>
       <c r="R14" s="20">
-        <v>5040</v>
+        <v>3090</v>
       </c>
       <c r="S14" s="20">
-        <v>5180</v>
+        <v>3280</v>
       </c>
       <c r="T14" s="23">
-        <v>5440</v>
+        <v>3620</v>
       </c>
       <c r="U14" s="23">
-        <v>5600</v>
+        <v>3740</v>
       </c>
       <c r="V14" s="23">
-        <v>5680</v>
+        <v>3750</v>
       </c>
       <c r="W14" s="13">
-        <v>5680</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A15" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="23">
-        <v>3080</v>
+        <v>3480</v>
       </c>
       <c r="C15" s="13">
-        <v>3330</v>
+        <v>3440</v>
       </c>
       <c r="D15" s="13">
-        <v>3630</v>
+        <v>3720</v>
       </c>
       <c r="E15" s="13">
-        <v>3900</v>
+        <v>3790</v>
       </c>
       <c r="F15" s="13">
-        <v>3800</v>
+        <v>3660</v>
       </c>
       <c r="G15" s="13">
-        <v>3650</v>
+        <v>3560</v>
       </c>
       <c r="H15" s="13">
-        <v>3270</v>
+        <v>3260</v>
       </c>
       <c r="I15" s="13">
-        <v>3140</v>
+        <v>3180</v>
       </c>
       <c r="J15" s="13">
-        <v>3190</v>
+        <v>3250</v>
       </c>
       <c r="K15" s="13">
-        <v>3370</v>
+        <v>3420</v>
       </c>
       <c r="L15" s="13">
-        <v>3490</v>
+        <v>3480</v>
       </c>
       <c r="M15" s="13">
-        <v>3880</v>
+        <v>3780</v>
       </c>
       <c r="N15" s="13">
-        <v>4310</v>
+        <v>4100</v>
       </c>
       <c r="O15" s="13">
-        <v>4700</v>
+        <v>4380</v>
       </c>
       <c r="P15" s="13">
-        <v>4960</v>
+        <v>4750</v>
       </c>
       <c r="Q15" s="13">
-        <v>5200</v>
+        <v>4850</v>
       </c>
       <c r="R15" s="20">
-        <v>5380</v>
+        <v>5040</v>
       </c>
       <c r="S15" s="20">
-        <v>5580</v>
+        <v>5180</v>
       </c>
       <c r="T15" s="23">
-        <v>5980</v>
+        <v>5440</v>
       </c>
       <c r="U15" s="23">
-        <v>6370</v>
+        <v>5600</v>
       </c>
       <c r="V15" s="23">
-        <v>6560</v>
+        <v>5680</v>
       </c>
       <c r="W15" s="13">
-        <v>6560</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A16" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="23">
-        <v>3400</v>
+        <v>3080</v>
       </c>
       <c r="C16" s="13">
-        <v>3560</v>
+        <v>3330</v>
       </c>
       <c r="D16" s="13">
-        <v>3780</v>
+        <v>3630</v>
       </c>
       <c r="E16" s="13">
+        <v>3900</v>
+      </c>
+      <c r="F16" s="13">
+        <v>3800</v>
+      </c>
+      <c r="G16" s="13">
+        <v>3650</v>
+      </c>
+      <c r="H16" s="13">
+        <v>3270</v>
+      </c>
+      <c r="I16" s="13">
+        <v>3140</v>
+      </c>
+      <c r="J16" s="13">
+        <v>3190</v>
+      </c>
+      <c r="K16" s="13">
+        <v>3370</v>
+      </c>
+      <c r="L16" s="13">
+        <v>3490</v>
+      </c>
+      <c r="M16" s="13">
         <v>3880</v>
       </c>
-      <c r="F16" s="13">
-        <v>3870</v>
-      </c>
-      <c r="G16" s="13">
-        <v>3700</v>
-      </c>
-      <c r="H16" s="13">
-        <v>3300</v>
-      </c>
-      <c r="I16" s="13">
-        <v>3170</v>
-      </c>
-      <c r="J16" s="13">
-        <v>3230</v>
-      </c>
-      <c r="K16" s="13">
-        <v>3470</v>
-      </c>
-      <c r="L16" s="13">
-        <v>3680</v>
-      </c>
-      <c r="M16" s="13">
-        <v>4110</v>
-      </c>
       <c r="N16" s="13">
-        <v>4550</v>
+        <v>4310</v>
       </c>
       <c r="O16" s="13">
-        <v>4940</v>
+        <v>4700</v>
       </c>
       <c r="P16" s="13">
-        <v>5260</v>
+        <v>4960</v>
       </c>
       <c r="Q16" s="13">
-        <v>5480</v>
+        <v>5200</v>
       </c>
       <c r="R16" s="20">
-        <v>5640</v>
+        <v>5380</v>
       </c>
       <c r="S16" s="20">
-        <v>5750</v>
+        <v>5580</v>
       </c>
       <c r="T16" s="23">
-        <v>6080</v>
+        <v>5980</v>
       </c>
       <c r="U16" s="23">
-        <v>6360</v>
+        <v>6370</v>
       </c>
       <c r="V16" s="23">
-        <v>6510</v>
+        <v>6560</v>
       </c>
       <c r="W16" s="13">
-        <v>6530</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="23">
-        <v>1990</v>
+        <v>3400</v>
       </c>
       <c r="C17" s="13">
-        <v>2150</v>
+        <v>3560</v>
       </c>
       <c r="D17" s="13">
-        <v>2400</v>
+        <v>3780</v>
       </c>
       <c r="E17" s="13">
-        <v>2720</v>
+        <v>3880</v>
       </c>
       <c r="F17" s="13">
-        <v>2560</v>
+        <v>3870</v>
       </c>
       <c r="G17" s="13">
-        <v>2470</v>
+        <v>3700</v>
       </c>
       <c r="H17" s="13">
-        <v>2200</v>
+        <v>3300</v>
       </c>
       <c r="I17" s="13">
-        <v>2080</v>
+        <v>3170</v>
       </c>
       <c r="J17" s="13">
-        <v>2390</v>
+        <v>3230</v>
       </c>
       <c r="K17" s="13">
-        <v>2510</v>
+        <v>3470</v>
       </c>
       <c r="L17" s="13">
-        <v>2630</v>
+        <v>3680</v>
       </c>
       <c r="M17" s="13">
-        <v>2950</v>
+        <v>4110</v>
       </c>
       <c r="N17" s="13">
-        <v>3330</v>
+        <v>4550</v>
       </c>
       <c r="O17" s="13">
-        <v>3600</v>
+        <v>4940</v>
       </c>
       <c r="P17" s="13">
-        <v>3650</v>
+        <v>5260</v>
       </c>
       <c r="Q17" s="13">
-        <v>3860</v>
+        <v>5480</v>
       </c>
       <c r="R17" s="20">
-        <v>3920</v>
+        <v>5640</v>
       </c>
       <c r="S17" s="20">
-        <v>3790</v>
+        <v>5750</v>
       </c>
       <c r="T17" s="23">
-        <v>3970</v>
+        <v>6080</v>
       </c>
       <c r="U17" s="23">
-        <v>4130</v>
+        <v>6360</v>
       </c>
       <c r="V17" s="23">
-        <v>4210</v>
+        <v>6510</v>
       </c>
       <c r="W17" s="13">
-        <v>4090</v>
+        <v>6530</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A18" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B18" s="23">
-        <v>2180</v>
+        <v>1990</v>
       </c>
       <c r="C18" s="13">
-        <v>2170</v>
+        <v>2150</v>
       </c>
       <c r="D18" s="13">
-        <v>2380</v>
+        <v>2400</v>
       </c>
       <c r="E18" s="13">
-        <v>2620</v>
+        <v>2720</v>
       </c>
       <c r="F18" s="13">
-        <v>2740</v>
+        <v>2560</v>
       </c>
       <c r="G18" s="13">
-        <v>2720</v>
+        <v>2470</v>
       </c>
       <c r="H18" s="13">
-        <v>2550</v>
+        <v>2200</v>
       </c>
       <c r="I18" s="13">
-        <v>2740</v>
+        <v>2080</v>
       </c>
       <c r="J18" s="13">
-        <v>2910</v>
+        <v>2390</v>
       </c>
       <c r="K18" s="13">
-        <v>3150</v>
+        <v>2510</v>
       </c>
       <c r="L18" s="13">
-        <v>3350</v>
+        <v>2630</v>
       </c>
       <c r="M18" s="13">
-        <v>3630</v>
+        <v>2950</v>
       </c>
       <c r="N18" s="13">
-        <v>3940</v>
+        <v>3330</v>
       </c>
       <c r="O18" s="13">
-        <v>4190</v>
+        <v>3600</v>
       </c>
       <c r="P18" s="13">
-        <v>4370</v>
+        <v>3650</v>
       </c>
       <c r="Q18" s="13">
-        <v>4530</v>
+        <v>3860</v>
       </c>
       <c r="R18" s="20">
-        <v>4630</v>
+        <v>3920</v>
       </c>
       <c r="S18" s="20">
-        <v>4740</v>
+        <v>3790</v>
       </c>
       <c r="T18" s="23">
-        <v>4920</v>
+        <v>3970</v>
       </c>
       <c r="U18" s="23">
-        <v>5030</v>
+        <v>4130</v>
       </c>
       <c r="V18" s="23">
-        <v>5130</v>
+        <v>4210</v>
       </c>
       <c r="W18" s="13">
-        <v>5190</v>
+        <v>4090</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A19" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="23">
-        <v>2780</v>
+        <v>2180</v>
       </c>
       <c r="C19" s="13">
-        <v>2850</v>
+        <v>2170</v>
       </c>
       <c r="D19" s="13">
+        <v>2380</v>
+      </c>
+      <c r="E19" s="13">
+        <v>2620</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2740</v>
+      </c>
+      <c r="G19" s="13">
+        <v>2720</v>
+      </c>
+      <c r="H19" s="13">
+        <v>2550</v>
+      </c>
+      <c r="I19" s="13">
+        <v>2740</v>
+      </c>
+      <c r="J19" s="13">
+        <v>2910</v>
+      </c>
+      <c r="K19" s="13">
         <v>3150</v>
       </c>
-      <c r="E19" s="13">
-        <v>3310</v>
-      </c>
-      <c r="F19" s="13">
-        <v>3410</v>
-      </c>
-      <c r="G19" s="13">
-        <v>3280</v>
-      </c>
-      <c r="H19" s="13">
-        <v>2850</v>
-      </c>
-      <c r="I19" s="13">
-        <v>2650</v>
-      </c>
-      <c r="J19" s="13">
-        <v>2690</v>
-      </c>
-      <c r="K19" s="13">
-        <v>2840</v>
-      </c>
       <c r="L19" s="13">
-        <v>2980</v>
+        <v>3350</v>
       </c>
       <c r="M19" s="13">
-        <v>3320</v>
+        <v>3630</v>
       </c>
       <c r="N19" s="13">
-        <v>3750</v>
+        <v>3940</v>
       </c>
       <c r="O19" s="13">
-        <v>4100</v>
+        <v>4190</v>
       </c>
       <c r="P19" s="13">
-        <v>4450</v>
+        <v>4370</v>
       </c>
       <c r="Q19" s="13">
-        <v>4610</v>
+        <v>4530</v>
       </c>
       <c r="R19" s="20">
-        <v>4760</v>
+        <v>4630</v>
       </c>
       <c r="S19" s="20">
-        <v>4900</v>
+        <v>4740</v>
       </c>
       <c r="T19" s="23">
+        <v>4920</v>
+      </c>
+      <c r="U19" s="23">
+        <v>5030</v>
+      </c>
+      <c r="V19" s="23">
+        <v>5130</v>
+      </c>
+      <c r="W19" s="13">
         <v>5190</v>
-      </c>
-      <c r="U19" s="23">
-        <v>5520</v>
-      </c>
-      <c r="V19" s="23">
-        <v>5580</v>
-      </c>
-      <c r="W19" s="13">
-        <v>5610</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="23">
-        <v>2760</v>
+        <v>2780</v>
       </c>
       <c r="C20" s="13">
-        <v>2760</v>
+        <v>2850</v>
       </c>
       <c r="D20" s="13">
-        <v>2950</v>
+        <v>3150</v>
       </c>
       <c r="E20" s="13">
-        <v>3080</v>
+        <v>3310</v>
       </c>
       <c r="F20" s="13">
-        <v>3040</v>
+        <v>3410</v>
       </c>
       <c r="G20" s="13">
-        <v>2990</v>
+        <v>3280</v>
       </c>
       <c r="H20" s="13">
-        <v>2750</v>
+        <v>2850</v>
       </c>
       <c r="I20" s="13">
-        <v>2700</v>
+        <v>2650</v>
       </c>
       <c r="J20" s="13">
-        <v>2790</v>
+        <v>2690</v>
       </c>
       <c r="K20" s="13">
-        <v>3010</v>
+        <v>2840</v>
       </c>
       <c r="L20" s="13">
-        <v>3120</v>
+        <v>2980</v>
       </c>
       <c r="M20" s="13">
-        <v>3410</v>
+        <v>3320</v>
       </c>
       <c r="N20" s="13">
-        <v>3700</v>
+        <v>3750</v>
       </c>
       <c r="O20" s="13">
-        <v>3930</v>
+        <v>4100</v>
       </c>
       <c r="P20" s="13">
-        <v>4090</v>
+        <v>4450</v>
       </c>
       <c r="Q20" s="13">
-        <v>4220</v>
+        <v>4610</v>
       </c>
       <c r="R20" s="20">
-        <v>4360</v>
+        <v>4760</v>
       </c>
       <c r="S20" s="20">
-        <v>4430</v>
+        <v>4900</v>
       </c>
       <c r="T20" s="23">
-        <v>4630</v>
+        <v>5190</v>
       </c>
       <c r="U20" s="23">
-        <v>4740</v>
+        <v>5520</v>
       </c>
       <c r="V20" s="23">
-        <v>4880</v>
+        <v>5580</v>
       </c>
       <c r="W20" s="13">
-        <v>4940</v>
+        <v>5610</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" s="23">
-        <v>2710</v>
+        <v>2760</v>
       </c>
       <c r="C21" s="13">
-        <v>2860</v>
+        <v>2760</v>
       </c>
       <c r="D21" s="13">
-        <v>2930</v>
+        <v>2950</v>
       </c>
       <c r="E21" s="13">
+        <v>3080</v>
+      </c>
+      <c r="F21" s="13">
+        <v>3040</v>
+      </c>
+      <c r="G21" s="13">
         <v>2990</v>
       </c>
-      <c r="F21" s="13">
-        <v>3030</v>
-      </c>
-      <c r="G21" s="13">
-        <v>2960</v>
-      </c>
       <c r="H21" s="13">
-        <v>2710</v>
+        <v>2750</v>
       </c>
       <c r="I21" s="13">
-        <v>2650</v>
+        <v>2700</v>
       </c>
       <c r="J21" s="13">
-        <v>2780</v>
+        <v>2790</v>
       </c>
       <c r="K21" s="13">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="L21" s="13">
-        <v>3140</v>
+        <v>3120</v>
       </c>
       <c r="M21" s="13">
-        <v>3380</v>
+        <v>3410</v>
       </c>
       <c r="N21" s="13">
-        <v>3660</v>
+        <v>3700</v>
       </c>
       <c r="O21" s="13">
-        <v>3880</v>
+        <v>3930</v>
       </c>
       <c r="P21" s="13">
-        <v>4110</v>
+        <v>4090</v>
       </c>
       <c r="Q21" s="13">
-        <v>4270</v>
+        <v>4220</v>
       </c>
       <c r="R21" s="20">
-        <v>4460</v>
+        <v>4360</v>
       </c>
       <c r="S21" s="20">
+        <v>4430</v>
+      </c>
+      <c r="T21" s="23">
         <v>4630</v>
       </c>
-      <c r="T21" s="23">
-        <v>4910</v>
-      </c>
       <c r="U21" s="23">
-        <v>5150</v>
+        <v>4740</v>
       </c>
       <c r="V21" s="23">
-        <v>5250</v>
+        <v>4880</v>
       </c>
       <c r="W21" s="13">
-        <v>5290</v>
+        <v>4940</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A22" s="13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="23">
-        <v>2500</v>
+        <v>2710</v>
       </c>
       <c r="C22" s="13">
-        <v>2430</v>
+        <v>2860</v>
       </c>
       <c r="D22" s="13">
-        <v>2620</v>
+        <v>2930</v>
       </c>
       <c r="E22" s="13">
-        <v>2740</v>
+        <v>2990</v>
       </c>
       <c r="F22" s="13">
-        <v>2790</v>
+        <v>3030</v>
       </c>
       <c r="G22" s="13">
-        <v>2810</v>
+        <v>2960</v>
       </c>
       <c r="H22" s="13">
-        <v>2680</v>
+        <v>2710</v>
       </c>
       <c r="I22" s="13">
-        <v>2710</v>
+        <v>2650</v>
       </c>
       <c r="J22" s="13">
-        <v>2830</v>
+        <v>2780</v>
       </c>
       <c r="K22" s="13">
-        <v>3110</v>
+        <v>3020</v>
       </c>
       <c r="L22" s="13">
-        <v>3240</v>
+        <v>3140</v>
       </c>
       <c r="M22" s="13">
-        <v>3520</v>
+        <v>3380</v>
       </c>
       <c r="N22" s="13">
-        <v>3770</v>
+        <v>3660</v>
       </c>
       <c r="O22" s="13">
-        <v>3900</v>
+        <v>3880</v>
       </c>
       <c r="P22" s="13">
-        <v>4000</v>
+        <v>4110</v>
       </c>
       <c r="Q22" s="13">
-        <v>4120</v>
+        <v>4270</v>
       </c>
       <c r="R22" s="20">
-        <v>4190</v>
+        <v>4460</v>
       </c>
       <c r="S22" s="20">
-        <v>4280</v>
+        <v>4630</v>
       </c>
       <c r="T22" s="23">
-        <v>4430</v>
+        <v>4910</v>
       </c>
       <c r="U22" s="23">
-        <v>4580</v>
+        <v>5150</v>
       </c>
       <c r="V22" s="23">
-        <v>4820</v>
+        <v>5250</v>
       </c>
       <c r="W22" s="13">
-        <v>4890</v>
+        <v>5290</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A23" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B23" s="23">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="C23" s="13">
-        <v>2460</v>
+        <v>2430</v>
       </c>
       <c r="D23" s="13">
-        <v>2560</v>
+        <v>2620</v>
       </c>
       <c r="E23" s="13">
-        <v>2710</v>
+        <v>2740</v>
       </c>
       <c r="F23" s="13">
         <v>2790</v>
       </c>
       <c r="G23" s="13">
-        <v>2730</v>
+        <v>2810</v>
       </c>
       <c r="H23" s="13">
-        <v>2520</v>
+        <v>2680</v>
       </c>
       <c r="I23" s="13">
-        <v>2520</v>
+        <v>2710</v>
       </c>
       <c r="J23" s="13">
-        <v>2650</v>
+        <v>2830</v>
       </c>
       <c r="K23" s="13">
-        <v>2870</v>
+        <v>3110</v>
       </c>
       <c r="L23" s="13">
-        <v>2940</v>
+        <v>3240</v>
       </c>
       <c r="M23" s="13">
-        <v>3110</v>
+        <v>3520</v>
       </c>
       <c r="N23" s="13">
-        <v>3370</v>
+        <v>3770</v>
       </c>
       <c r="O23" s="13">
-        <v>3580</v>
+        <v>3900</v>
       </c>
       <c r="P23" s="13">
-        <v>3780</v>
+        <v>4000</v>
       </c>
       <c r="Q23" s="13">
-        <v>3950</v>
+        <v>4120</v>
       </c>
       <c r="R23" s="20">
-        <v>4120</v>
+        <v>4190</v>
       </c>
       <c r="S23" s="20">
-        <v>4270</v>
+        <v>4280</v>
       </c>
       <c r="T23" s="23">
-        <v>4530</v>
+        <v>4430</v>
       </c>
       <c r="U23" s="23">
-        <v>4700</v>
+        <v>4580</v>
       </c>
       <c r="V23" s="23">
-        <v>4860</v>
+        <v>4820</v>
       </c>
       <c r="W23" s="13">
-        <v>5000</v>
+        <v>4890</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A24" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="23">
-        <v>2950</v>
+        <v>2300</v>
       </c>
       <c r="C24" s="13">
-        <v>3170</v>
+        <v>2460</v>
       </c>
       <c r="D24" s="13">
-        <v>3150</v>
+        <v>2560</v>
       </c>
       <c r="E24" s="13">
-        <v>3820</v>
+        <v>2710</v>
       </c>
       <c r="F24" s="13">
-        <v>3980</v>
+        <v>2790</v>
       </c>
       <c r="G24" s="13">
-        <v>4030</v>
+        <v>2730</v>
       </c>
       <c r="H24" s="13">
-        <v>3740</v>
+        <v>2520</v>
       </c>
       <c r="I24" s="13">
-        <v>3590</v>
+        <v>2520</v>
       </c>
       <c r="J24" s="13">
-        <v>3710</v>
+        <v>2650</v>
       </c>
       <c r="K24" s="13">
-        <v>4030</v>
+        <v>2870</v>
       </c>
       <c r="L24" s="13">
-        <v>4230</v>
+        <v>2940</v>
       </c>
       <c r="M24" s="13">
-        <v>4650</v>
+        <v>3110</v>
       </c>
       <c r="N24" s="13">
-        <v>5100</v>
+        <v>3370</v>
       </c>
       <c r="O24" s="13">
-        <v>5390</v>
+        <v>3580</v>
       </c>
       <c r="P24" s="13">
-        <v>5550</v>
+        <v>3780</v>
       </c>
       <c r="Q24" s="13">
-        <v>5760</v>
+        <v>3950</v>
       </c>
       <c r="R24" s="20">
-        <v>5950</v>
+        <v>4120</v>
       </c>
       <c r="S24" s="20">
-        <v>6150</v>
+        <v>4270</v>
       </c>
       <c r="T24" s="23">
-        <v>6510</v>
+        <v>4530</v>
       </c>
       <c r="U24" s="23">
-        <v>6710</v>
+        <v>4700</v>
       </c>
       <c r="V24" s="23">
-        <v>6860</v>
+        <v>4860</v>
       </c>
       <c r="W24" s="13">
-        <v>6890</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A25" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="23">
-        <v>2490</v>
+        <v>2950</v>
       </c>
       <c r="C25" s="13">
-        <v>2450</v>
+        <v>3170</v>
       </c>
       <c r="D25" s="13">
-        <v>2690</v>
+        <v>3150</v>
       </c>
       <c r="E25" s="13">
-        <v>2800</v>
+        <v>3820</v>
       </c>
       <c r="F25" s="13">
-        <v>2620</v>
+        <v>3980</v>
       </c>
       <c r="G25" s="13">
-        <v>2590</v>
+        <v>4030</v>
       </c>
       <c r="H25" s="13">
-        <v>2440</v>
+        <v>3740</v>
       </c>
       <c r="I25" s="13">
-        <v>2450</v>
+        <v>3590</v>
       </c>
       <c r="J25" s="13">
-        <v>2580</v>
+        <v>3710</v>
       </c>
       <c r="K25" s="13">
-        <v>2750</v>
+        <v>4030</v>
       </c>
       <c r="L25" s="13">
-        <v>2920</v>
+        <v>4230</v>
       </c>
       <c r="M25" s="13">
-        <v>3130</v>
+        <v>4650</v>
       </c>
       <c r="N25" s="13">
-        <v>3460</v>
+        <v>5100</v>
       </c>
       <c r="O25" s="13">
-        <v>3650</v>
+        <v>5390</v>
       </c>
       <c r="P25" s="13">
-        <v>3810</v>
+        <v>5550</v>
       </c>
       <c r="Q25" s="13">
-        <v>3910</v>
+        <v>5760</v>
       </c>
       <c r="R25" s="20">
-        <v>3990</v>
+        <v>5950</v>
       </c>
       <c r="S25" s="20">
-        <v>3920</v>
+        <v>6150</v>
       </c>
       <c r="T25" s="23">
-        <v>4020</v>
+        <v>6510</v>
       </c>
       <c r="U25" s="23">
-        <v>4150</v>
+        <v>6710</v>
       </c>
       <c r="V25" s="23">
-        <v>4280</v>
+        <v>6860</v>
       </c>
       <c r="W25" s="13">
-        <v>4290</v>
+        <v>6890</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A26" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B26" s="23">
-        <v>3630</v>
+        <v>2490</v>
       </c>
       <c r="C26" s="13">
-        <v>3600</v>
+        <v>2450</v>
       </c>
       <c r="D26" s="13">
-        <v>3980</v>
+        <v>2690</v>
       </c>
       <c r="E26" s="13">
-        <v>4090</v>
+        <v>2800</v>
       </c>
       <c r="F26" s="13">
-        <v>3770</v>
+        <v>2620</v>
       </c>
       <c r="G26" s="13">
-        <v>3670</v>
+        <v>2590</v>
       </c>
       <c r="H26" s="13">
-        <v>3430</v>
+        <v>2440</v>
       </c>
       <c r="I26" s="13">
-        <v>3360</v>
+        <v>2450</v>
       </c>
       <c r="J26" s="13">
-        <v>3480</v>
+        <v>2580</v>
       </c>
       <c r="K26" s="13">
-        <v>3750</v>
+        <v>2750</v>
       </c>
       <c r="L26" s="13">
-        <v>3880</v>
+        <v>2920</v>
       </c>
       <c r="M26" s="13">
-        <v>4200</v>
+        <v>3130</v>
       </c>
       <c r="N26" s="13">
-        <v>4590</v>
+        <v>3460</v>
       </c>
       <c r="O26" s="13">
-        <v>4910</v>
+        <v>3650</v>
       </c>
       <c r="P26" s="13">
-        <v>5110</v>
+        <v>3810</v>
       </c>
       <c r="Q26" s="13">
-        <v>5160</v>
+        <v>3910</v>
       </c>
       <c r="R26" s="20">
-        <v>5430</v>
+        <v>3990</v>
       </c>
       <c r="S26" s="20">
-        <v>5510</v>
+        <v>3920</v>
       </c>
       <c r="T26" s="23">
-        <v>5700</v>
+        <v>4020</v>
       </c>
       <c r="U26" s="23">
-        <v>5880</v>
+        <v>4150</v>
       </c>
       <c r="V26" s="23">
-        <v>6020</v>
+        <v>4280</v>
       </c>
       <c r="W26" s="13">
-        <v>6000</v>
+        <v>4290</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A27" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="23">
-        <v>2800</v>
+        <v>3630</v>
       </c>
       <c r="C27" s="13">
-        <v>2720</v>
+        <v>3600</v>
       </c>
       <c r="D27" s="13">
-        <v>2940</v>
+        <v>3980</v>
       </c>
       <c r="E27" s="13">
-        <v>2860</v>
+        <v>4090</v>
       </c>
       <c r="F27" s="13">
-        <v>2910</v>
+        <v>3770</v>
       </c>
       <c r="G27" s="13">
-        <v>2940</v>
+        <v>3670</v>
       </c>
       <c r="H27" s="13">
-        <v>2920</v>
+        <v>3430</v>
       </c>
       <c r="I27" s="13">
-        <v>2840</v>
+        <v>3360</v>
       </c>
       <c r="J27" s="13">
-        <v>2960</v>
+        <v>3480</v>
       </c>
       <c r="K27" s="13">
-        <v>3110</v>
+        <v>3750</v>
       </c>
       <c r="L27" s="13">
-        <v>3270</v>
+        <v>3880</v>
       </c>
       <c r="M27" s="13">
-        <v>3510</v>
+        <v>4200</v>
       </c>
       <c r="N27" s="13">
-        <v>3860</v>
+        <v>4590</v>
       </c>
       <c r="O27" s="13">
-        <v>4170</v>
+        <v>4910</v>
       </c>
       <c r="P27" s="13">
-        <v>4330</v>
+        <v>5110</v>
       </c>
       <c r="Q27" s="13">
-        <v>4490</v>
+        <v>5160</v>
       </c>
       <c r="R27" s="20">
-        <v>4670</v>
+        <v>5430</v>
       </c>
       <c r="S27" s="20">
-        <v>4890</v>
+        <v>5510</v>
       </c>
       <c r="T27" s="23">
-        <v>5180</v>
+        <v>5700</v>
       </c>
       <c r="U27" s="23">
-        <v>5410</v>
+        <v>5880</v>
       </c>
       <c r="V27" s="23">
-        <v>5640</v>
+        <v>6020</v>
       </c>
       <c r="W27" s="13">
-        <v>5800</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A28" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B28" s="23">
-        <v>3060</v>
+        <v>2800</v>
       </c>
       <c r="C28" s="13">
+        <v>2720</v>
+      </c>
+      <c r="D28" s="13">
         <v>2940</v>
       </c>
-      <c r="D28" s="13">
-        <v>2830</v>
-      </c>
       <c r="E28" s="13">
-        <v>2730</v>
+        <v>2860</v>
       </c>
       <c r="F28" s="13">
-        <v>2640</v>
+        <v>2910</v>
       </c>
       <c r="G28" s="13">
-        <v>2670</v>
+        <v>2940</v>
       </c>
       <c r="H28" s="13">
-        <v>2550</v>
+        <v>2920</v>
       </c>
       <c r="I28" s="13">
-        <v>2670</v>
+        <v>2840</v>
       </c>
       <c r="J28" s="13">
-        <v>2780</v>
+        <v>2960</v>
       </c>
       <c r="K28" s="13">
-        <v>2880</v>
+        <v>3110</v>
       </c>
       <c r="L28" s="13">
-        <v>2900</v>
+        <v>3270</v>
       </c>
       <c r="M28" s="13">
-        <v>3110</v>
+        <v>3510</v>
       </c>
       <c r="N28" s="13">
-        <v>3260</v>
+        <v>3860</v>
       </c>
       <c r="O28" s="13">
-        <v>3520</v>
+        <v>4170</v>
       </c>
       <c r="P28" s="13">
-        <v>3690</v>
+        <v>4330</v>
       </c>
       <c r="Q28" s="13">
-        <v>3770</v>
+        <v>4490</v>
       </c>
       <c r="R28" s="20">
-        <v>3980</v>
+        <v>4670</v>
       </c>
       <c r="S28" s="20">
-        <v>4150</v>
+        <v>4890</v>
       </c>
       <c r="T28" s="23">
-        <v>4410</v>
+        <v>5180</v>
       </c>
       <c r="U28" s="23">
-        <v>4780</v>
+        <v>5410</v>
       </c>
       <c r="V28" s="23">
-        <v>5010</v>
+        <v>5640</v>
       </c>
       <c r="W28" s="13">
-        <v>5000</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A29" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B29" s="23">
-        <v>2580</v>
+        <v>3060</v>
       </c>
       <c r="C29" s="13">
-        <v>2560</v>
+        <v>2940</v>
       </c>
       <c r="D29" s="13">
+        <v>2830</v>
+      </c>
+      <c r="E29" s="13">
+        <v>2730</v>
+      </c>
+      <c r="F29" s="13">
+        <v>2640</v>
+      </c>
+      <c r="G29" s="13">
         <v>2670</v>
       </c>
-      <c r="E29" s="13">
-        <v>2650</v>
-      </c>
-      <c r="F29" s="13">
-        <v>2620</v>
-      </c>
-      <c r="G29" s="13">
-        <v>2540</v>
-      </c>
       <c r="H29" s="13">
-        <v>2290</v>
+        <v>2550</v>
       </c>
       <c r="I29" s="13">
-        <v>2250</v>
+        <v>2670</v>
       </c>
       <c r="J29" s="13">
-        <v>2500</v>
+        <v>2780</v>
       </c>
       <c r="K29" s="13">
-        <v>2700</v>
+        <v>2880</v>
       </c>
       <c r="L29" s="13">
-        <v>2990</v>
+        <v>2900</v>
       </c>
       <c r="M29" s="13">
+        <v>3110</v>
+      </c>
+      <c r="N29" s="13">
         <v>3260</v>
       </c>
-      <c r="N29" s="13">
-        <v>3550</v>
-      </c>
       <c r="O29" s="13">
+        <v>3520</v>
+      </c>
+      <c r="P29" s="13">
         <v>3690</v>
       </c>
-      <c r="P29" s="13">
-        <v>3950</v>
-      </c>
       <c r="Q29" s="13">
-        <v>4130</v>
+        <v>3770</v>
       </c>
       <c r="R29" s="20">
-        <v>4220</v>
+        <v>3980</v>
       </c>
       <c r="S29" s="20">
-        <v>4320</v>
+        <v>4150</v>
       </c>
       <c r="T29" s="23">
-        <v>4440</v>
+        <v>4410</v>
       </c>
       <c r="U29" s="23">
-        <v>4570</v>
+        <v>4780</v>
       </c>
       <c r="V29" s="23">
-        <v>4700</v>
+        <v>5010</v>
       </c>
       <c r="W29" s="13">
-        <v>4690</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A30" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="23">
-        <v>2850</v>
+        <v>2580</v>
       </c>
       <c r="C30" s="13">
-        <v>2730</v>
+        <v>2560</v>
       </c>
       <c r="D30" s="13">
-        <v>2980</v>
+        <v>2670</v>
       </c>
       <c r="E30" s="13">
-        <v>3040</v>
+        <v>2650</v>
       </c>
       <c r="F30" s="13">
-        <v>3080</v>
+        <v>2620</v>
       </c>
       <c r="G30" s="13">
+        <v>2540</v>
+      </c>
+      <c r="H30" s="13">
+        <v>2290</v>
+      </c>
+      <c r="I30" s="13">
+        <v>2250</v>
+      </c>
+      <c r="J30" s="13">
+        <v>2500</v>
+      </c>
+      <c r="K30" s="13">
+        <v>2700</v>
+      </c>
+      <c r="L30" s="13">
         <v>2990</v>
       </c>
-      <c r="H30" s="13">
-        <v>2740</v>
-      </c>
-      <c r="I30" s="13">
-        <v>2660</v>
-      </c>
-      <c r="J30" s="13">
-        <v>2760</v>
-      </c>
-      <c r="K30" s="13">
-        <v>2980</v>
-      </c>
-      <c r="L30" s="13">
-        <v>3090</v>
-      </c>
       <c r="M30" s="13">
-        <v>3380</v>
+        <v>3260</v>
       </c>
       <c r="N30" s="13">
-        <v>3700</v>
+        <v>3550</v>
       </c>
       <c r="O30" s="13">
+        <v>3690</v>
+      </c>
+      <c r="P30" s="13">
         <v>3950</v>
       </c>
-      <c r="P30" s="13">
-        <v>4180</v>
-      </c>
       <c r="Q30" s="13">
+        <v>4130</v>
+      </c>
+      <c r="R30" s="20">
+        <v>4220</v>
+      </c>
+      <c r="S30" s="20">
         <v>4320</v>
       </c>
-      <c r="R30" s="20">
-        <v>4460</v>
-      </c>
-      <c r="S30" s="20">
-        <v>4560</v>
-      </c>
       <c r="T30" s="23">
-        <v>4740</v>
+        <v>4440</v>
       </c>
       <c r="U30" s="23">
-        <v>4870</v>
+        <v>4570</v>
       </c>
       <c r="V30" s="23">
-        <v>4990</v>
+        <v>4700</v>
       </c>
       <c r="W30" s="13">
-        <v>5060</v>
+        <v>4690</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A31" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B31" s="23">
-        <v>2310</v>
+        <v>2850</v>
       </c>
       <c r="C31" s="13">
-        <v>2390</v>
+        <v>2730</v>
       </c>
       <c r="D31" s="13">
-        <v>2350</v>
+        <v>2980</v>
       </c>
       <c r="E31" s="13">
-        <v>2840</v>
+        <v>3040</v>
       </c>
       <c r="F31" s="13">
-        <v>3070</v>
+        <v>3080</v>
       </c>
       <c r="G31" s="13">
-        <v>3130</v>
+        <v>2990</v>
       </c>
       <c r="H31" s="13">
-        <v>2830</v>
+        <v>2740</v>
       </c>
       <c r="I31" s="13">
-        <v>2900</v>
+        <v>2660</v>
       </c>
       <c r="J31" s="13">
-        <v>3030</v>
+        <v>2760</v>
       </c>
       <c r="K31" s="13">
-        <v>3370</v>
+        <v>2980</v>
       </c>
       <c r="L31" s="13">
-        <v>3530</v>
+        <v>3090</v>
       </c>
       <c r="M31" s="13">
-        <v>3890</v>
+        <v>3380</v>
       </c>
       <c r="N31" s="13">
-        <v>4270</v>
+        <v>3700</v>
       </c>
       <c r="O31" s="13">
-        <v>4590</v>
+        <v>3950</v>
       </c>
       <c r="P31" s="13">
-        <v>4840</v>
+        <v>4180</v>
       </c>
       <c r="Q31" s="13">
-        <v>5010</v>
+        <v>4320</v>
       </c>
       <c r="R31" s="20">
-        <v>5220</v>
+        <v>4460</v>
       </c>
       <c r="S31" s="20">
-        <v>5460</v>
+        <v>4560</v>
       </c>
       <c r="T31" s="23">
-        <v>5780</v>
+        <v>4740</v>
       </c>
       <c r="U31" s="23">
-        <v>5990</v>
+        <v>4870</v>
       </c>
       <c r="V31" s="23">
-        <v>6280</v>
+        <v>4990</v>
       </c>
       <c r="W31" s="13">
-        <v>6470</v>
+        <v>5060</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A32" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B32" s="23">
-        <v>2290</v>
+        <v>2310</v>
       </c>
       <c r="C32" s="13">
-        <v>2340</v>
+        <v>2390</v>
       </c>
       <c r="D32" s="13">
-        <v>2510</v>
+        <v>2350</v>
       </c>
       <c r="E32" s="13">
-        <v>2910</v>
+        <v>2840</v>
       </c>
       <c r="F32" s="13">
-        <v>2990</v>
+        <v>3070</v>
       </c>
       <c r="G32" s="13">
-        <v>2920</v>
+        <v>3130</v>
       </c>
       <c r="H32" s="13">
-        <v>2620</v>
+        <v>2830</v>
       </c>
       <c r="I32" s="13">
-        <v>2640</v>
+        <v>2900</v>
       </c>
       <c r="J32" s="13">
-        <v>2790</v>
+        <v>3030</v>
       </c>
       <c r="K32" s="13">
-        <v>3000</v>
+        <v>3370</v>
       </c>
       <c r="L32" s="13">
-        <v>3110</v>
+        <v>3530</v>
       </c>
       <c r="M32" s="13">
-        <v>3380</v>
+        <v>3890</v>
       </c>
       <c r="N32" s="13">
-        <v>3630</v>
+        <v>4270</v>
       </c>
       <c r="O32" s="13">
-        <v>3800</v>
+        <v>4590</v>
       </c>
       <c r="P32" s="13">
-        <v>4080</v>
+        <v>4840</v>
       </c>
       <c r="Q32" s="13">
-        <v>4240</v>
+        <v>5010</v>
       </c>
       <c r="R32" s="20">
-        <v>4340</v>
+        <v>5220</v>
       </c>
       <c r="S32" s="20">
-        <v>4580</v>
+        <v>5460</v>
       </c>
       <c r="T32" s="23">
-        <v>4740</v>
+        <v>5780</v>
       </c>
       <c r="U32" s="23">
-        <v>4760</v>
+        <v>5990</v>
       </c>
       <c r="V32" s="23">
-        <v>4940</v>
+        <v>6280</v>
       </c>
       <c r="W32" s="13">
-        <v>4950</v>
+        <v>6470</v>
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A33" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="23">
-        <v>3090</v>
+        <v>2290</v>
       </c>
       <c r="C33" s="13">
-        <v>3200</v>
+        <v>2340</v>
       </c>
       <c r="D33" s="13">
-        <v>3370</v>
+        <v>2510</v>
       </c>
       <c r="E33" s="13">
-        <v>3490</v>
+        <v>2910</v>
       </c>
       <c r="F33" s="13">
+        <v>2990</v>
+      </c>
+      <c r="G33" s="13">
+        <v>2920</v>
+      </c>
+      <c r="H33" s="13">
+        <v>2620</v>
+      </c>
+      <c r="I33" s="13">
+        <v>2640</v>
+      </c>
+      <c r="J33" s="13">
+        <v>2790</v>
+      </c>
+      <c r="K33" s="13">
+        <v>3000</v>
+      </c>
+      <c r="L33" s="13">
+        <v>3110</v>
+      </c>
+      <c r="M33" s="13">
+        <v>3380</v>
+      </c>
+      <c r="N33" s="13">
         <v>3630</v>
       </c>
-      <c r="G33" s="13">
-        <v>3580</v>
-      </c>
-      <c r="H33" s="13">
-        <v>3250</v>
-      </c>
-      <c r="I33" s="13">
-        <v>3180</v>
-      </c>
-      <c r="J33" s="13">
-        <v>3260</v>
-      </c>
-      <c r="K33" s="13">
-        <v>3520</v>
-      </c>
-      <c r="L33" s="13">
-        <v>3660</v>
-      </c>
-      <c r="M33" s="13">
-        <v>3950</v>
-      </c>
-      <c r="N33" s="13">
-        <v>4290</v>
-      </c>
       <c r="O33" s="13">
-        <v>4640</v>
+        <v>3800</v>
       </c>
       <c r="P33" s="13">
-        <v>4910</v>
+        <v>4080</v>
       </c>
       <c r="Q33" s="13">
-        <v>5040</v>
+        <v>4240</v>
       </c>
       <c r="R33" s="20">
-        <v>5230</v>
+        <v>4340</v>
       </c>
       <c r="S33" s="20">
-        <v>5360</v>
+        <v>4580</v>
       </c>
       <c r="T33" s="23">
-        <v>5600</v>
+        <v>4740</v>
       </c>
       <c r="U33" s="23">
-        <v>5810</v>
+        <v>4760</v>
       </c>
       <c r="V33" s="23">
-        <v>6000</v>
+        <v>4940</v>
       </c>
       <c r="W33" s="13">
-        <v>6010</v>
+        <v>4950</v>
       </c>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A34" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="23">
-        <v>2330</v>
+        <v>3090</v>
       </c>
       <c r="C34" s="13">
-        <v>2310</v>
+        <v>3200</v>
       </c>
       <c r="D34" s="13">
-        <v>2410</v>
+        <v>3370</v>
       </c>
       <c r="E34" s="13">
-        <v>2540</v>
+        <v>3490</v>
       </c>
       <c r="F34" s="13">
-        <v>2600</v>
+        <v>3630</v>
       </c>
       <c r="G34" s="13">
-        <v>2570</v>
+        <v>3580</v>
       </c>
       <c r="H34" s="13">
-        <v>2350</v>
+        <v>3250</v>
       </c>
       <c r="I34" s="13">
-        <v>2540</v>
+        <v>3180</v>
       </c>
       <c r="J34" s="13">
-        <v>3050</v>
+        <v>3260</v>
       </c>
       <c r="K34" s="13">
-        <v>3470</v>
+        <v>3520</v>
       </c>
       <c r="L34" s="13">
-        <v>3870</v>
+        <v>3660</v>
       </c>
       <c r="M34" s="13">
-        <v>4190</v>
+        <v>3950</v>
       </c>
       <c r="N34" s="13">
-        <v>4510</v>
+        <v>4290</v>
       </c>
       <c r="O34" s="13">
+        <v>4640</v>
+      </c>
+      <c r="P34" s="13">
         <v>4910</v>
       </c>
-      <c r="P34" s="13">
-        <v>5020</v>
-      </c>
       <c r="Q34" s="13">
-        <v>5290</v>
+        <v>5040</v>
       </c>
       <c r="R34" s="20">
-        <v>5530</v>
+        <v>5230</v>
       </c>
       <c r="S34" s="20">
-        <v>5670</v>
+        <v>5360</v>
       </c>
       <c r="T34" s="23">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="U34" s="23">
-        <v>5930</v>
+        <v>5810</v>
       </c>
       <c r="V34" s="23">
-        <v>6180</v>
+        <v>6000</v>
       </c>
       <c r="W34" s="13">
-        <v>6630</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A35" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="23">
-        <v>2090</v>
+        <v>2330</v>
       </c>
       <c r="C35" s="13">
-        <v>2250</v>
+        <v>2310</v>
       </c>
       <c r="D35" s="13">
-        <v>2560</v>
+        <v>2410</v>
       </c>
       <c r="E35" s="13">
-        <v>2620</v>
+        <v>2540</v>
       </c>
       <c r="F35" s="13">
-        <v>2820</v>
+        <v>2600</v>
       </c>
       <c r="G35" s="13">
-        <v>2820</v>
+        <v>2570</v>
       </c>
       <c r="H35" s="13">
-        <v>2640</v>
+        <v>2350</v>
       </c>
       <c r="I35" s="13">
-        <v>2630</v>
+        <v>2540</v>
       </c>
       <c r="J35" s="13">
-        <v>2860</v>
+        <v>3050</v>
       </c>
       <c r="K35" s="13">
-        <v>3080</v>
+        <v>3470</v>
       </c>
       <c r="L35" s="13">
-        <v>3190</v>
+        <v>3870</v>
       </c>
       <c r="M35" s="13">
-        <v>3410</v>
+        <v>4190</v>
       </c>
       <c r="N35" s="13">
-        <v>3660</v>
+        <v>4510</v>
       </c>
       <c r="O35" s="13">
-        <v>3860</v>
+        <v>4910</v>
       </c>
       <c r="P35" s="13">
-        <v>4030</v>
+        <v>5020</v>
       </c>
       <c r="Q35" s="13">
-        <v>4160</v>
+        <v>5290</v>
       </c>
       <c r="R35" s="20">
-        <v>4250</v>
+        <v>5530</v>
       </c>
       <c r="S35" s="20">
-        <v>4410</v>
+        <v>5670</v>
       </c>
       <c r="T35" s="23">
-        <v>4620</v>
+        <v>5800</v>
       </c>
       <c r="U35" s="23">
-        <v>4820</v>
+        <v>5930</v>
       </c>
       <c r="V35" s="23">
-        <v>4930</v>
+        <v>6180</v>
       </c>
       <c r="W35" s="13">
-        <v>5030</v>
+        <v>6630</v>
       </c>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A36" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="23">
-        <v>3440</v>
+        <v>2090</v>
       </c>
       <c r="C36" s="13">
-        <v>3330</v>
+        <v>2250</v>
       </c>
       <c r="D36" s="13">
-        <v>3760</v>
+        <v>2560</v>
       </c>
       <c r="E36" s="13">
-        <v>3850</v>
+        <v>2620</v>
       </c>
       <c r="F36" s="13">
-        <v>3760</v>
+        <v>2820</v>
       </c>
       <c r="G36" s="13">
-        <v>3710</v>
+        <v>2820</v>
       </c>
       <c r="H36" s="13">
-        <v>3480</v>
+        <v>2640</v>
       </c>
       <c r="I36" s="13">
-        <v>3390</v>
+        <v>2630</v>
       </c>
       <c r="J36" s="13">
-        <v>3470</v>
+        <v>2860</v>
       </c>
       <c r="K36" s="13">
-        <v>3740</v>
+        <v>3080</v>
       </c>
       <c r="L36" s="13">
-        <v>3960</v>
+        <v>3190</v>
       </c>
       <c r="M36" s="13">
-        <v>4320</v>
+        <v>3410</v>
       </c>
       <c r="N36" s="13">
-        <v>4730</v>
+        <v>3660</v>
       </c>
       <c r="O36" s="13">
-        <v>5020</v>
+        <v>3860</v>
       </c>
       <c r="P36" s="13">
-        <v>5220</v>
+        <v>4030</v>
       </c>
       <c r="Q36" s="13">
-        <v>5360</v>
+        <v>4160</v>
       </c>
       <c r="R36" s="20">
-        <v>5560</v>
+        <v>4250</v>
       </c>
       <c r="S36" s="20">
-        <v>5640</v>
+        <v>4410</v>
       </c>
       <c r="T36" s="23">
-        <v>5860</v>
+        <v>4620</v>
       </c>
       <c r="U36" s="23">
-        <v>5980</v>
+        <v>4820</v>
       </c>
       <c r="V36" s="23">
-        <v>6160</v>
+        <v>4930</v>
       </c>
       <c r="W36" s="13">
-        <v>6100</v>
+        <v>5030</v>
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A37" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B37" s="23">
-        <v>2960</v>
+        <v>3440</v>
       </c>
       <c r="C37" s="13">
-        <v>3160</v>
+        <v>3330</v>
       </c>
       <c r="D37" s="13">
-        <v>3270</v>
+        <v>3760</v>
       </c>
       <c r="E37" s="13">
-        <v>3220</v>
+        <v>3850</v>
       </c>
       <c r="F37" s="13">
-        <v>3070</v>
+        <v>3760</v>
       </c>
       <c r="G37" s="13">
-        <v>3030</v>
+        <v>3710</v>
       </c>
       <c r="H37" s="13">
-        <v>2910</v>
+        <v>3480</v>
       </c>
       <c r="I37" s="13">
-        <v>2960</v>
+        <v>3390</v>
       </c>
       <c r="J37" s="13">
-        <v>3090</v>
+        <v>3470</v>
       </c>
       <c r="K37" s="13">
-        <v>3180</v>
+        <v>3740</v>
       </c>
       <c r="L37" s="13">
-        <v>3230</v>
+        <v>3960</v>
       </c>
       <c r="M37" s="13">
-        <v>3410</v>
+        <v>4320</v>
       </c>
       <c r="N37" s="13">
-        <v>3630</v>
+        <v>4730</v>
       </c>
       <c r="O37" s="13">
-        <v>3800</v>
+        <v>5020</v>
       </c>
       <c r="P37" s="13">
-        <v>3910</v>
+        <v>5220</v>
       </c>
       <c r="Q37" s="13">
-        <v>4020</v>
+        <v>5360</v>
       </c>
       <c r="R37" s="20">
-        <v>4160</v>
+        <v>5560</v>
       </c>
       <c r="S37" s="20">
-        <v>4220</v>
+        <v>5640</v>
       </c>
       <c r="T37" s="23">
-        <v>4500</v>
+        <v>5860</v>
       </c>
       <c r="U37" s="23">
-        <v>4820</v>
+        <v>5980</v>
       </c>
       <c r="V37" s="23">
-        <v>5050</v>
+        <v>6160</v>
       </c>
       <c r="W37" s="13">
-        <v>5090</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A38" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="23">
-        <v>3300</v>
+        <v>2960</v>
       </c>
       <c r="C38" s="13">
-        <v>3400</v>
+        <v>3160</v>
       </c>
       <c r="D38" s="13">
-        <v>3730</v>
+        <v>3270</v>
       </c>
       <c r="E38" s="13">
-        <v>4040</v>
+        <v>3220</v>
       </c>
       <c r="F38" s="13">
-        <v>4280</v>
+        <v>3070</v>
       </c>
       <c r="G38" s="13">
-        <v>4300</v>
+        <v>3030</v>
       </c>
       <c r="H38" s="13">
-        <v>3850</v>
+        <v>2910</v>
       </c>
       <c r="I38" s="13">
-        <v>3690</v>
+        <v>2960</v>
       </c>
       <c r="J38" s="13">
-        <v>3770</v>
+        <v>3090</v>
       </c>
       <c r="K38" s="13">
-        <v>3990</v>
+        <v>3180</v>
       </c>
       <c r="L38" s="13">
-        <v>4090</v>
+        <v>3230</v>
       </c>
       <c r="M38" s="13">
+        <v>3410</v>
+      </c>
+      <c r="N38" s="13">
+        <v>3630</v>
+      </c>
+      <c r="O38" s="13">
+        <v>3800</v>
+      </c>
+      <c r="P38" s="13">
+        <v>3910</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>4020</v>
+      </c>
+      <c r="R38" s="20">
+        <v>4160</v>
+      </c>
+      <c r="S38" s="20">
+        <v>4220</v>
+      </c>
+      <c r="T38" s="23">
         <v>4500</v>
       </c>
-      <c r="N38" s="13">
-        <v>4910</v>
-      </c>
-      <c r="O38" s="13">
-        <v>5220</v>
-      </c>
-      <c r="P38" s="13">
-        <v>5190</v>
-      </c>
-      <c r="Q38" s="13">
-        <v>5420</v>
-      </c>
-      <c r="R38" s="20">
-        <v>5690</v>
-      </c>
-      <c r="S38" s="20">
-        <v>5790</v>
-      </c>
-      <c r="T38" s="23">
-        <v>5320</v>
-      </c>
       <c r="U38" s="23">
-        <v>6310</v>
+        <v>4820</v>
       </c>
       <c r="V38" s="23">
-        <v>6550</v>
+        <v>5050</v>
       </c>
       <c r="W38" s="13">
-        <v>6780</v>
+        <v>5090</v>
       </c>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A39" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="23">
-        <v>3670</v>
+        <v>3300</v>
       </c>
       <c r="C39" s="13">
-        <v>3950</v>
+        <v>3400</v>
       </c>
       <c r="D39" s="13">
-        <v>4210</v>
+        <v>3730</v>
       </c>
       <c r="E39" s="13">
-        <v>4470</v>
+        <v>4040</v>
       </c>
       <c r="F39" s="13">
+        <v>4280</v>
+      </c>
+      <c r="G39" s="13">
+        <v>4300</v>
+      </c>
+      <c r="H39" s="13">
+        <v>3850</v>
+      </c>
+      <c r="I39" s="13">
+        <v>3690</v>
+      </c>
+      <c r="J39" s="13">
+        <v>3770</v>
+      </c>
+      <c r="K39" s="13">
+        <v>3990</v>
+      </c>
+      <c r="L39" s="13">
+        <v>4090</v>
+      </c>
+      <c r="M39" s="13">
         <v>4500</v>
       </c>
-      <c r="G39" s="13">
-        <v>4380</v>
-      </c>
-      <c r="H39" s="13">
-        <v>3660</v>
-      </c>
-      <c r="I39" s="13">
-        <v>3350</v>
-      </c>
-      <c r="J39" s="13">
-        <v>3330</v>
-      </c>
-      <c r="K39" s="13">
-        <v>3490</v>
-      </c>
-      <c r="L39" s="13">
-        <v>3650</v>
-      </c>
-      <c r="M39" s="13">
-        <v>4010</v>
-      </c>
       <c r="N39" s="13">
-        <v>4440</v>
+        <v>4910</v>
       </c>
       <c r="O39" s="13">
-        <v>4800</v>
+        <v>5220</v>
       </c>
       <c r="P39" s="13">
-        <v>5020</v>
+        <v>5190</v>
       </c>
       <c r="Q39" s="13">
-        <v>5260</v>
+        <v>5420</v>
       </c>
       <c r="R39" s="20">
-        <v>5410</v>
+        <v>5690</v>
       </c>
       <c r="S39" s="20">
-        <v>5450</v>
+        <v>5790</v>
       </c>
       <c r="T39" s="23">
-        <v>5710</v>
+        <v>5320</v>
       </c>
       <c r="U39" s="23">
-        <v>6030</v>
+        <v>6310</v>
       </c>
       <c r="V39" s="23">
-        <v>6190</v>
+        <v>6550</v>
       </c>
       <c r="W39" s="13">
-        <v>6230</v>
+        <v>6780</v>
       </c>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A40" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B40" s="23">
-        <v>2410</v>
+        <v>3670</v>
       </c>
       <c r="C40" s="13">
-        <v>2570</v>
+        <v>3950</v>
       </c>
       <c r="D40" s="13">
-        <v>2850</v>
+        <v>4210</v>
       </c>
       <c r="E40" s="13">
-        <v>2930</v>
+        <v>4470</v>
       </c>
       <c r="F40" s="13">
-        <v>2710</v>
+        <v>4500</v>
       </c>
       <c r="G40" s="13">
-        <v>2630</v>
+        <v>4380</v>
       </c>
       <c r="H40" s="13">
-        <v>2540</v>
+        <v>3660</v>
       </c>
       <c r="I40" s="13">
-        <v>2610</v>
+        <v>3350</v>
       </c>
       <c r="J40" s="13">
-        <v>2740</v>
+        <v>3330</v>
       </c>
       <c r="K40" s="13">
-        <v>2870</v>
+        <v>3490</v>
       </c>
       <c r="L40" s="13">
-        <v>2930</v>
+        <v>3650</v>
       </c>
       <c r="M40" s="13">
-        <v>3110</v>
+        <v>4010</v>
       </c>
       <c r="N40" s="13">
-        <v>3350</v>
+        <v>4440</v>
       </c>
       <c r="O40" s="13">
-        <v>3470</v>
+        <v>4800</v>
       </c>
       <c r="P40" s="13">
-        <v>3560</v>
+        <v>5020</v>
       </c>
       <c r="Q40" s="13">
-        <v>3700</v>
+        <v>5260</v>
       </c>
       <c r="R40" s="20">
-        <v>3780</v>
+        <v>5410</v>
       </c>
       <c r="S40" s="20">
-        <v>3820</v>
+        <v>5450</v>
       </c>
       <c r="T40" s="23">
-        <v>4080</v>
+        <v>5710</v>
       </c>
       <c r="U40" s="23">
-        <v>4230</v>
+        <v>6030</v>
       </c>
       <c r="V40" s="23">
-        <v>4430</v>
+        <v>6190</v>
       </c>
       <c r="W40" s="13">
-        <v>4460</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A41" s="13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B41" s="23">
-        <v>2820</v>
+        <v>2410</v>
       </c>
       <c r="C41" s="13">
-        <v>2970</v>
+        <v>2570</v>
       </c>
       <c r="D41" s="13">
-        <v>2980</v>
+        <v>2850</v>
       </c>
       <c r="E41" s="13">
-        <v>2980</v>
+        <v>2930</v>
       </c>
       <c r="F41" s="13">
-        <v>3020</v>
+        <v>2710</v>
       </c>
       <c r="G41" s="13">
-        <v>2980</v>
+        <v>2630</v>
       </c>
       <c r="H41" s="13">
-        <v>2760</v>
+        <v>2540</v>
       </c>
       <c r="I41" s="13">
-        <v>2760</v>
+        <v>2610</v>
       </c>
       <c r="J41" s="13">
-        <v>2900</v>
+        <v>2740</v>
       </c>
       <c r="K41" s="13">
+        <v>2870</v>
+      </c>
+      <c r="L41" s="13">
+        <v>2930</v>
+      </c>
+      <c r="M41" s="13">
         <v>3110</v>
       </c>
-      <c r="L41" s="13">
-        <v>3220</v>
-      </c>
-      <c r="M41" s="13">
-        <v>3510</v>
-      </c>
       <c r="N41" s="13">
-        <v>3800</v>
+        <v>3350</v>
       </c>
       <c r="O41" s="13">
-        <v>4010</v>
+        <v>3470</v>
       </c>
       <c r="P41" s="13">
-        <v>4190</v>
+        <v>3560</v>
       </c>
       <c r="Q41" s="13">
-        <v>4370</v>
+        <v>3700</v>
       </c>
       <c r="R41" s="20">
-        <v>4590</v>
+        <v>3780</v>
       </c>
       <c r="S41" s="20">
-        <v>4710</v>
+        <v>3820</v>
       </c>
       <c r="T41" s="23">
-        <v>4940</v>
+        <v>4080</v>
       </c>
       <c r="U41" s="23">
-        <v>5180</v>
+        <v>4230</v>
       </c>
       <c r="V41" s="23">
-        <v>5330</v>
+        <v>4430</v>
       </c>
       <c r="W41" s="13">
-        <v>5390</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A42" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="23">
-        <v>2780</v>
+        <v>2820</v>
       </c>
       <c r="C42" s="13">
-        <v>2760</v>
+        <v>2970</v>
       </c>
       <c r="D42" s="13">
         <v>2980</v>
       </c>
       <c r="E42" s="13">
-        <v>3180</v>
+        <v>2980</v>
       </c>
       <c r="F42" s="13">
-        <v>3410</v>
+        <v>3020</v>
       </c>
       <c r="G42" s="13">
-        <v>3520</v>
+        <v>2980</v>
       </c>
       <c r="H42" s="13">
-        <v>3450</v>
+        <v>2760</v>
       </c>
       <c r="I42" s="13">
-        <v>3420</v>
+        <v>2760</v>
       </c>
       <c r="J42" s="13">
-        <v>3620</v>
+        <v>2900</v>
       </c>
       <c r="K42" s="13">
-        <v>3980</v>
+        <v>3110</v>
       </c>
       <c r="L42" s="13">
-        <v>4160</v>
+        <v>3220</v>
       </c>
       <c r="M42" s="13">
-        <v>4530</v>
+        <v>3510</v>
       </c>
       <c r="N42" s="13">
-        <v>4860</v>
+        <v>3800</v>
       </c>
       <c r="O42" s="13">
-        <v>4960</v>
+        <v>4010</v>
       </c>
       <c r="P42" s="13">
-        <v>5050</v>
+        <v>4190</v>
       </c>
       <c r="Q42" s="13">
-        <v>5350</v>
+        <v>4370</v>
       </c>
       <c r="R42" s="20">
-        <v>5510</v>
+        <v>4590</v>
       </c>
       <c r="S42" s="20">
-        <v>5130</v>
+        <v>4710</v>
       </c>
       <c r="T42" s="23">
-        <v>5900</v>
+        <v>4940</v>
       </c>
       <c r="U42" s="23">
-        <v>6000</v>
+        <v>5180</v>
       </c>
       <c r="V42" s="23">
-        <v>6130</v>
+        <v>5330</v>
       </c>
       <c r="W42" s="13">
-        <v>6270</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A43" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="23">
-        <v>2530</v>
+        <v>2780</v>
       </c>
       <c r="C43" s="13">
-        <v>2570</v>
+        <v>2760</v>
       </c>
       <c r="D43" s="13">
-        <v>2840</v>
+        <v>2980</v>
       </c>
       <c r="E43" s="13">
-        <v>2930</v>
+        <v>3180</v>
       </c>
       <c r="F43" s="13">
-        <v>2920</v>
+        <v>3410</v>
       </c>
       <c r="G43" s="13">
-        <v>2810</v>
+        <v>3520</v>
       </c>
       <c r="H43" s="13">
-        <v>2470</v>
+        <v>3450</v>
       </c>
       <c r="I43" s="13">
-        <v>2290</v>
+        <v>3420</v>
       </c>
       <c r="J43" s="13">
-        <v>2320</v>
+        <v>3620</v>
       </c>
       <c r="K43" s="13">
-        <v>2480</v>
+        <v>3980</v>
       </c>
       <c r="L43" s="13">
-        <v>2620</v>
+        <v>4160</v>
       </c>
       <c r="M43" s="13">
-        <v>2900</v>
+        <v>4530</v>
       </c>
       <c r="N43" s="13">
-        <v>3220</v>
+        <v>4860</v>
       </c>
       <c r="O43" s="13">
-        <v>3510</v>
+        <v>4960</v>
       </c>
       <c r="P43" s="13">
-        <v>3770</v>
+        <v>5050</v>
       </c>
       <c r="Q43" s="13">
-        <v>3950</v>
+        <v>5350</v>
       </c>
       <c r="R43" s="20">
-        <v>4010</v>
+        <v>5510</v>
       </c>
       <c r="S43" s="20">
-        <v>4070</v>
+        <v>5130</v>
       </c>
       <c r="T43" s="23">
-        <v>4300</v>
+        <v>5900</v>
       </c>
       <c r="U43" s="23">
-        <v>4530</v>
+        <v>6000</v>
       </c>
       <c r="V43" s="23">
-        <v>4470</v>
+        <v>6130</v>
       </c>
       <c r="W43" s="13">
-        <v>4270</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A44" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44" s="23">
-        <v>2710</v>
+        <v>2530</v>
       </c>
       <c r="C44" s="13">
-        <v>2650</v>
+        <v>2570</v>
       </c>
       <c r="D44" s="13">
-        <v>2860</v>
+        <v>2840</v>
       </c>
       <c r="E44" s="13">
-        <v>2880</v>
+        <v>2930</v>
       </c>
       <c r="F44" s="13">
+        <v>2920</v>
+      </c>
+      <c r="G44" s="13">
+        <v>2810</v>
+      </c>
+      <c r="H44" s="13">
+        <v>2470</v>
+      </c>
+      <c r="I44" s="13">
+        <v>2290</v>
+      </c>
+      <c r="J44" s="13">
+        <v>2320</v>
+      </c>
+      <c r="K44" s="13">
+        <v>2480</v>
+      </c>
+      <c r="L44" s="13">
+        <v>2620</v>
+      </c>
+      <c r="M44" s="13">
         <v>2900</v>
       </c>
-      <c r="G44" s="13">
-        <v>2880</v>
-      </c>
-      <c r="H44" s="13">
-        <v>2720</v>
-      </c>
-      <c r="I44" s="13">
-        <v>2730</v>
-      </c>
-      <c r="J44" s="13">
-        <v>2890</v>
-      </c>
-      <c r="K44" s="13">
-        <v>3080</v>
-      </c>
-      <c r="L44" s="13">
-        <v>3160</v>
-      </c>
-      <c r="M44" s="13">
-        <v>3420</v>
-      </c>
       <c r="N44" s="13">
-        <v>3680</v>
+        <v>3220</v>
       </c>
       <c r="O44" s="13">
-        <v>3880</v>
+        <v>3510</v>
       </c>
       <c r="P44" s="13">
-        <v>4000</v>
+        <v>3770</v>
       </c>
       <c r="Q44" s="13">
-        <v>4150</v>
+        <v>3950</v>
       </c>
       <c r="R44" s="20">
-        <v>4310</v>
+        <v>4010</v>
       </c>
       <c r="S44" s="20">
-        <v>4380</v>
+        <v>4070</v>
       </c>
       <c r="T44" s="23">
-        <v>4650</v>
+        <v>4300</v>
       </c>
       <c r="U44" s="23">
-        <v>4780</v>
+        <v>4530</v>
       </c>
       <c r="V44" s="23">
-        <v>4850</v>
+        <v>4470</v>
       </c>
       <c r="W44" s="13">
-        <v>4890</v>
+        <v>4270</v>
       </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A45" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B45" s="23">
-        <v>2340</v>
+        <v>2710</v>
       </c>
       <c r="C45" s="13">
-        <v>2360</v>
+        <v>2650</v>
       </c>
       <c r="D45" s="13">
-        <v>2650</v>
+        <v>2860</v>
       </c>
       <c r="E45" s="13">
-        <v>2750</v>
+        <v>2880</v>
       </c>
       <c r="F45" s="13">
-        <v>2690</v>
+        <v>2900</v>
       </c>
       <c r="G45" s="13">
-        <v>2470</v>
+        <v>2880</v>
       </c>
       <c r="H45" s="13">
-        <v>2390</v>
+        <v>2720</v>
       </c>
       <c r="I45" s="13">
-        <v>2400</v>
+        <v>2730</v>
       </c>
       <c r="J45" s="13">
-        <v>2470</v>
+        <v>2890</v>
       </c>
       <c r="K45" s="13">
-        <v>2840</v>
+        <v>3080</v>
       </c>
       <c r="L45" s="13">
-        <v>2920</v>
+        <v>3160</v>
       </c>
       <c r="M45" s="13">
-        <v>3000</v>
+        <v>3420</v>
       </c>
       <c r="N45" s="13">
-        <v>3040</v>
+        <v>3680</v>
       </c>
       <c r="O45" s="13">
-        <v>3190</v>
-      </c>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="23"/>
+        <v>3880</v>
+      </c>
+      <c r="P45" s="13">
+        <v>4000</v>
+      </c>
+      <c r="Q45" s="13">
+        <v>4150</v>
+      </c>
+      <c r="R45" s="20">
+        <v>4310</v>
+      </c>
+      <c r="S45" s="20">
+        <v>4380</v>
+      </c>
+      <c r="T45" s="23">
+        <v>4650</v>
+      </c>
+      <c r="U45" s="23">
+        <v>4780</v>
+      </c>
+      <c r="V45" s="23">
+        <v>4850</v>
+      </c>
+      <c r="W45" s="13">
+        <v>4890</v>
+      </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A46" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46" s="23">
-        <v>2570</v>
+        <v>2340</v>
       </c>
       <c r="C46" s="13">
-        <v>2680</v>
+        <v>2360</v>
       </c>
       <c r="D46" s="13">
-        <v>2780</v>
+        <v>2650</v>
       </c>
       <c r="E46" s="13">
-        <v>2800</v>
+        <v>2750</v>
       </c>
       <c r="F46" s="13">
-        <v>2640</v>
+        <v>2690</v>
       </c>
       <c r="G46" s="13">
-        <v>2510</v>
+        <v>2470</v>
       </c>
       <c r="H46" s="13">
-        <v>2350</v>
+        <v>2390</v>
       </c>
       <c r="I46" s="13">
-        <v>2360</v>
+        <v>2400</v>
       </c>
       <c r="J46" s="13">
-        <v>2450</v>
+        <v>2470</v>
       </c>
       <c r="K46" s="13">
-        <v>2580</v>
+        <v>2840</v>
       </c>
       <c r="L46" s="13">
-        <v>2660</v>
+        <v>2920</v>
       </c>
       <c r="M46" s="13">
-        <v>2870</v>
+        <v>3000</v>
       </c>
       <c r="N46" s="13">
-        <v>3210</v>
+        <v>3040</v>
       </c>
       <c r="O46" s="13">
-        <v>3420</v>
-      </c>
-      <c r="P46" s="13">
-        <v>3610</v>
-      </c>
-      <c r="Q46" s="13">
-        <v>3740</v>
-      </c>
-      <c r="R46" s="20">
-        <v>3970</v>
-      </c>
-      <c r="S46" s="20">
-        <v>4030</v>
-      </c>
-      <c r="T46" s="23">
-        <v>4330</v>
-      </c>
-      <c r="U46" s="23">
-        <v>4530</v>
-      </c>
-      <c r="V46" s="23">
-        <v>4700</v>
-      </c>
-      <c r="W46" s="13">
-        <v>4820</v>
-      </c>
+        <v>3190</v>
+      </c>
+      <c r="R46" s="20"/>
+      <c r="S46" s="20"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="23"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A47" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B47" s="23">
-        <v>2880</v>
+        <v>2570</v>
       </c>
       <c r="C47" s="13">
-        <v>2950</v>
+        <v>2680</v>
       </c>
       <c r="D47" s="13">
-        <v>3120</v>
+        <v>2780</v>
       </c>
       <c r="E47" s="13">
-        <v>3230</v>
+        <v>2800</v>
       </c>
       <c r="F47" s="13">
-        <v>3380</v>
+        <v>2640</v>
       </c>
       <c r="G47" s="13">
-        <v>3340</v>
+        <v>2510</v>
       </c>
       <c r="H47" s="13">
-        <v>3010</v>
+        <v>2350</v>
       </c>
       <c r="I47" s="13">
-        <v>2920</v>
+        <v>2360</v>
       </c>
       <c r="J47" s="13">
-        <v>2970</v>
+        <v>2450</v>
       </c>
       <c r="K47" s="13">
-        <v>3180</v>
+        <v>2580</v>
       </c>
       <c r="L47" s="13">
-        <v>3340</v>
+        <v>2660</v>
       </c>
       <c r="M47" s="13">
-        <v>3650</v>
+        <v>2870</v>
       </c>
       <c r="N47" s="13">
-        <v>3910</v>
+        <v>3210</v>
       </c>
       <c r="O47" s="13">
-        <v>4390</v>
+        <v>3420</v>
       </c>
       <c r="P47" s="13">
-        <v>4630</v>
+        <v>3610</v>
       </c>
       <c r="Q47" s="13">
-        <v>4780</v>
+        <v>3740</v>
       </c>
       <c r="R47" s="20">
-        <v>5000</v>
+        <v>3970</v>
       </c>
       <c r="S47" s="20">
-        <v>5130</v>
+        <v>4030</v>
       </c>
       <c r="T47" s="23">
-        <v>5420</v>
+        <v>4330</v>
       </c>
       <c r="U47" s="23">
-        <v>5650</v>
+        <v>4530</v>
       </c>
       <c r="V47" s="23">
-        <v>5830</v>
+        <v>4700</v>
       </c>
       <c r="W47" s="13">
-        <v>5930</v>
+        <v>4820</v>
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A48" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B48" s="23">
-        <v>2720</v>
+        <v>2880</v>
       </c>
       <c r="C48" s="13">
-        <v>2680</v>
+        <v>2950</v>
       </c>
       <c r="D48" s="13">
-        <v>2740</v>
+        <v>3120</v>
       </c>
       <c r="E48" s="13">
-        <v>2990</v>
+        <v>3230</v>
       </c>
       <c r="F48" s="13">
-        <v>3200</v>
+        <v>3380</v>
       </c>
       <c r="G48" s="13">
-        <v>3020</v>
+        <v>3340</v>
       </c>
       <c r="H48" s="13">
-        <v>2780</v>
+        <v>3010</v>
       </c>
       <c r="I48" s="13">
-        <v>2820</v>
+        <v>2920</v>
       </c>
       <c r="J48" s="13">
-        <v>3170</v>
+        <v>2970</v>
       </c>
       <c r="K48" s="13">
-        <v>3420</v>
+        <v>3180</v>
       </c>
       <c r="L48" s="13">
-        <v>3620</v>
+        <v>3340</v>
       </c>
       <c r="M48" s="13">
-        <v>3800</v>
+        <v>3650</v>
       </c>
       <c r="N48" s="13">
-        <v>4000</v>
+        <v>3910</v>
       </c>
       <c r="O48" s="13">
-        <v>4220</v>
+        <v>4390</v>
       </c>
       <c r="P48" s="13">
-        <v>4350</v>
+        <v>4630</v>
       </c>
       <c r="Q48" s="13">
-        <v>4520</v>
+        <v>4780</v>
       </c>
       <c r="R48" s="20">
-        <v>4610</v>
+        <v>5000</v>
       </c>
       <c r="S48" s="20">
-        <v>4780</v>
+        <v>5130</v>
       </c>
       <c r="T48" s="23">
-        <v>4950</v>
+        <v>5420</v>
       </c>
       <c r="U48" s="23">
-        <v>5150</v>
+        <v>5650</v>
       </c>
       <c r="V48" s="23">
-        <v>5240</v>
+        <v>5830</v>
       </c>
       <c r="W48" s="13">
-        <v>5530</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A49" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B49" s="23">
-        <v>2860</v>
+        <v>2720</v>
       </c>
       <c r="C49" s="13">
-        <v>3060</v>
+        <v>2680</v>
       </c>
       <c r="D49" s="13">
-        <v>3220</v>
+        <v>2740</v>
       </c>
       <c r="E49" s="13">
-        <v>3270</v>
+        <v>2990</v>
       </c>
       <c r="F49" s="13">
-        <v>3380</v>
+        <v>3200</v>
       </c>
       <c r="G49" s="13">
-        <v>3220</v>
+        <v>3020</v>
       </c>
       <c r="H49" s="13">
-        <v>2880</v>
+        <v>2780</v>
       </c>
       <c r="I49" s="13">
-        <v>2790</v>
+        <v>2820</v>
       </c>
       <c r="J49" s="13">
-        <v>2890</v>
+        <v>3170</v>
       </c>
       <c r="K49" s="13">
-        <v>3110</v>
+        <v>3420</v>
       </c>
       <c r="L49" s="13">
-        <v>3250</v>
+        <v>3620</v>
       </c>
       <c r="M49" s="13">
-        <v>3530</v>
+        <v>3800</v>
       </c>
       <c r="N49" s="13">
-        <v>3880</v>
+        <v>4000</v>
       </c>
       <c r="O49" s="13">
-        <v>4180</v>
+        <v>4220</v>
       </c>
       <c r="P49" s="13">
-        <v>4440</v>
+        <v>4350</v>
       </c>
       <c r="Q49" s="13">
-        <v>4620</v>
+        <v>4520</v>
       </c>
       <c r="R49" s="20">
+        <v>4610</v>
+      </c>
+      <c r="S49" s="20">
         <v>4780</v>
       </c>
-      <c r="S49" s="20">
+      <c r="T49" s="23">
         <v>4950</v>
       </c>
-      <c r="T49" s="23">
-        <v>5230</v>
-      </c>
       <c r="U49" s="23">
-        <v>5490</v>
+        <v>5150</v>
       </c>
       <c r="V49" s="23">
-        <v>5700</v>
+        <v>5240</v>
       </c>
       <c r="W49" s="13">
-        <v>5790</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A50" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B50" s="23">
-        <v>3940</v>
+        <v>2860</v>
       </c>
       <c r="C50" s="13">
-        <v>3800</v>
+        <v>3060</v>
       </c>
       <c r="D50" s="13">
-        <v>4130</v>
+        <v>3220</v>
       </c>
       <c r="E50" s="13">
-        <v>4320</v>
+        <v>3270</v>
       </c>
       <c r="F50" s="13">
-        <v>4600</v>
+        <v>3380</v>
       </c>
       <c r="G50" s="13">
-        <v>4730</v>
+        <v>3220</v>
       </c>
       <c r="H50" s="13">
-        <v>4380</v>
+        <v>2880</v>
       </c>
       <c r="I50" s="13">
-        <v>4220</v>
+        <v>2790</v>
       </c>
       <c r="J50" s="13">
-        <v>4380</v>
+        <v>2890</v>
       </c>
       <c r="K50" s="13">
-        <v>4790</v>
+        <v>3110</v>
       </c>
       <c r="L50" s="13">
-        <v>5010</v>
+        <v>3250</v>
       </c>
       <c r="M50" s="13">
-        <v>5480</v>
+        <v>3530</v>
       </c>
       <c r="N50" s="13">
-        <v>6070</v>
+        <v>3880</v>
       </c>
       <c r="O50" s="13">
-        <v>6370</v>
+        <v>4180</v>
       </c>
       <c r="P50" s="13">
-        <v>6520</v>
+        <v>4440</v>
       </c>
       <c r="Q50" s="13">
-        <v>6720</v>
+        <v>4620</v>
       </c>
       <c r="R50" s="20">
-        <v>6880</v>
+        <v>4780</v>
       </c>
       <c r="S50" s="20">
-        <v>7000</v>
+        <v>4950</v>
       </c>
       <c r="T50" s="23">
-        <v>7270</v>
+        <v>5230</v>
       </c>
       <c r="U50" s="23">
-        <v>7610</v>
+        <v>5490</v>
       </c>
       <c r="V50" s="23">
-        <v>7810</v>
+        <v>5700</v>
       </c>
       <c r="W50" s="13">
-        <v>7920</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A51" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B51" s="23">
-        <v>2990</v>
+        <v>3940</v>
       </c>
       <c r="C51" s="13">
-        <v>3050</v>
+        <v>3800</v>
       </c>
       <c r="D51" s="13">
-        <v>3370</v>
+        <v>4130</v>
       </c>
       <c r="E51" s="13">
-        <v>3580</v>
+        <v>4320</v>
       </c>
       <c r="F51" s="13">
-        <v>3930</v>
+        <v>4600</v>
       </c>
       <c r="G51" s="13">
-        <v>3890</v>
+        <v>4730</v>
       </c>
       <c r="H51" s="13">
-        <v>3510</v>
+        <v>4380</v>
       </c>
       <c r="I51" s="13">
-        <v>3310</v>
+        <v>4220</v>
       </c>
       <c r="J51" s="13">
-        <v>3350</v>
+        <v>4380</v>
       </c>
       <c r="K51" s="13">
-        <v>3600</v>
+        <v>4790</v>
       </c>
       <c r="L51" s="13">
-        <v>3840</v>
+        <v>5010</v>
       </c>
       <c r="M51" s="13">
-        <v>4150</v>
+        <v>5480</v>
       </c>
       <c r="N51" s="13">
-        <v>4490</v>
+        <v>6070</v>
       </c>
       <c r="O51" s="13">
-        <v>4780</v>
+        <v>6370</v>
       </c>
       <c r="P51" s="13">
-        <v>5020</v>
+        <v>6520</v>
       </c>
       <c r="Q51" s="13">
-        <v>5220</v>
+        <v>6720</v>
       </c>
       <c r="R51" s="20">
-        <v>5370</v>
+        <v>6880</v>
       </c>
       <c r="S51" s="20">
-        <v>5480</v>
+        <v>7000</v>
       </c>
       <c r="T51" s="23">
-        <v>5710</v>
+        <v>7270</v>
       </c>
       <c r="U51" s="23">
-        <v>6040</v>
+        <v>7610</v>
       </c>
       <c r="V51" s="23">
-        <v>6090</v>
+        <v>7810</v>
       </c>
       <c r="W51" s="13">
-        <v>6070</v>
+        <v>7920</v>
       </c>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A52" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B52" s="23">
-        <v>3240</v>
+        <v>2990</v>
       </c>
       <c r="C52" s="13">
-        <v>3330</v>
+        <v>3050</v>
       </c>
       <c r="D52" s="13">
+        <v>3370</v>
+      </c>
+      <c r="E52" s="13">
         <v>3580</v>
       </c>
-      <c r="E52" s="13">
-        <v>3660</v>
-      </c>
       <c r="F52" s="13">
-        <v>3580</v>
+        <v>3930</v>
       </c>
       <c r="G52" s="13">
-        <v>3480</v>
+        <v>3890</v>
       </c>
       <c r="H52" s="13">
-        <v>3230</v>
+        <v>3510</v>
       </c>
       <c r="I52" s="13">
-        <v>3190</v>
+        <v>3310</v>
       </c>
       <c r="J52" s="13">
-        <v>3300</v>
+        <v>3350</v>
       </c>
       <c r="K52" s="13">
-        <v>3540</v>
+        <v>3600</v>
       </c>
       <c r="L52" s="13">
-        <v>3660</v>
+        <v>3840</v>
       </c>
       <c r="M52" s="13">
-        <v>3920</v>
+        <v>4150</v>
       </c>
       <c r="N52" s="13">
-        <v>4220</v>
+        <v>4490</v>
       </c>
       <c r="O52" s="13">
-        <v>4480</v>
+        <v>4780</v>
       </c>
       <c r="P52" s="13">
-        <v>4650</v>
+        <v>5020</v>
       </c>
       <c r="Q52" s="13">
-        <v>4680</v>
+        <v>5220</v>
       </c>
       <c r="R52" s="20">
-        <v>4900</v>
+        <v>5370</v>
       </c>
       <c r="S52" s="20">
-        <v>4990</v>
+        <v>5480</v>
       </c>
       <c r="T52" s="23">
-        <v>5210</v>
+        <v>5710</v>
       </c>
       <c r="U52" s="23">
-        <v>5380</v>
+        <v>6040</v>
       </c>
       <c r="V52" s="23">
-        <v>5570</v>
+        <v>6090</v>
       </c>
       <c r="W52" s="13">
-        <v>5630</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A53" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" s="23">
-        <v>2990</v>
+        <v>3240</v>
       </c>
       <c r="C53" s="13">
-        <v>2870</v>
+        <v>3330</v>
       </c>
       <c r="D53" s="13">
-        <v>3340</v>
+        <v>3580</v>
       </c>
       <c r="E53" s="13">
-        <v>3340</v>
+        <v>3660</v>
       </c>
       <c r="F53" s="13">
-        <v>3440</v>
+        <v>3580</v>
       </c>
       <c r="G53" s="13">
-        <v>3460</v>
+        <v>3480</v>
       </c>
       <c r="H53" s="13">
-        <v>3240</v>
+        <v>3230</v>
       </c>
       <c r="I53" s="13">
-        <v>3250</v>
+        <v>3190</v>
       </c>
       <c r="J53" s="13">
-        <v>3470</v>
+        <v>3300</v>
       </c>
       <c r="K53" s="13">
-        <v>3680</v>
+        <v>3540</v>
       </c>
       <c r="L53" s="13">
-        <v>3890</v>
+        <v>3660</v>
       </c>
       <c r="M53" s="13">
+        <v>3920</v>
+      </c>
+      <c r="N53" s="13">
         <v>4220</v>
       </c>
-      <c r="N53" s="13">
-        <v>4530</v>
-      </c>
       <c r="O53" s="13">
-        <v>4690</v>
+        <v>4480</v>
       </c>
       <c r="P53" s="13">
-        <v>4860</v>
+        <v>4650</v>
       </c>
       <c r="Q53" s="13">
-        <v>5050</v>
+        <v>4680</v>
       </c>
       <c r="R53" s="20">
-        <v>5250</v>
+        <v>4900</v>
       </c>
       <c r="S53" s="20">
-        <v>5390</v>
+        <v>4990</v>
       </c>
       <c r="T53" s="23">
-        <v>5620</v>
+        <v>5210</v>
       </c>
       <c r="U53" s="23">
-        <v>5830</v>
+        <v>5380</v>
       </c>
       <c r="V53" s="23">
-        <v>5970</v>
+        <v>5570</v>
       </c>
       <c r="W53" s="13">
-        <v>6140</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A54" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" s="23">
-        <v>2890</v>
+        <v>2990</v>
       </c>
       <c r="C54" s="13">
-        <v>3010</v>
+        <v>2870</v>
       </c>
       <c r="D54" s="13">
-        <v>3140</v>
+        <v>3340</v>
       </c>
       <c r="E54" s="13">
-        <v>3220</v>
+        <v>3340</v>
       </c>
       <c r="F54" s="13">
+        <v>3440</v>
+      </c>
+      <c r="G54" s="13">
+        <v>3460</v>
+      </c>
+      <c r="H54" s="13">
+        <v>3240</v>
+      </c>
+      <c r="I54" s="13">
         <v>3250</v>
       </c>
-      <c r="G54" s="13">
-        <v>3210</v>
-      </c>
-      <c r="H54" s="13">
-        <v>2930</v>
-      </c>
-      <c r="I54" s="13">
-        <v>2780</v>
-      </c>
       <c r="J54" s="13">
-        <v>2790</v>
+        <v>3470</v>
       </c>
       <c r="K54" s="13">
-        <v>2940</v>
+        <v>3680</v>
       </c>
       <c r="L54" s="13">
-        <v>3080</v>
+        <v>3890</v>
       </c>
       <c r="M54" s="13">
-        <v>3350</v>
+        <v>4220</v>
       </c>
       <c r="N54" s="13">
-        <v>3670</v>
+        <v>4530</v>
       </c>
       <c r="O54" s="13">
-        <v>3960</v>
+        <v>4690</v>
       </c>
       <c r="P54" s="13">
-        <v>4200</v>
+        <v>4860</v>
       </c>
       <c r="Q54" s="13">
-        <v>4450</v>
+        <v>5050</v>
       </c>
       <c r="R54" s="20">
-        <v>4470</v>
+        <v>5250</v>
       </c>
       <c r="S54" s="20">
-        <v>4450</v>
+        <v>5390</v>
       </c>
       <c r="T54" s="23">
-        <v>4620</v>
+        <v>5620</v>
       </c>
       <c r="U54" s="23">
-        <v>4850</v>
+        <v>5830</v>
       </c>
       <c r="V54" s="23">
-        <v>5020</v>
+        <v>5970</v>
       </c>
       <c r="W54" s="13">
-        <v>4930</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A55" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" s="23">
-        <v>2090</v>
+        <v>2890</v>
       </c>
       <c r="C55" s="13">
-        <v>2190</v>
+        <v>3010</v>
       </c>
       <c r="D55" s="13">
-        <v>2250</v>
+        <v>3140</v>
       </c>
       <c r="E55" s="13">
-        <v>2320</v>
+        <v>3220</v>
       </c>
       <c r="F55" s="13">
-        <v>2320</v>
+        <v>3250</v>
       </c>
       <c r="G55" s="13">
-        <v>2290</v>
+        <v>3210</v>
       </c>
       <c r="H55" s="13">
-        <v>2120</v>
+        <v>2930</v>
       </c>
       <c r="I55" s="13">
-        <v>2100</v>
+        <v>2780</v>
       </c>
       <c r="J55" s="13">
-        <v>2240</v>
+        <v>2790</v>
       </c>
       <c r="K55" s="13">
-        <v>2470</v>
+        <v>2940</v>
       </c>
       <c r="L55" s="13">
-        <v>2690</v>
+        <v>3080</v>
       </c>
       <c r="M55" s="13">
-        <v>2930</v>
+        <v>3350</v>
       </c>
       <c r="N55" s="13">
-        <v>3220</v>
+        <v>3670</v>
       </c>
       <c r="O55" s="13">
-        <v>3340</v>
+        <v>3960</v>
       </c>
       <c r="P55" s="13">
-        <v>3580</v>
+        <v>4200</v>
       </c>
       <c r="Q55" s="13">
-        <v>3790</v>
+        <v>4450</v>
       </c>
       <c r="R55" s="20">
-        <v>4000</v>
+        <v>4470</v>
       </c>
       <c r="S55" s="20">
-        <v>4130</v>
+        <v>4450</v>
       </c>
       <c r="T55" s="23">
-        <v>4300</v>
+        <v>4620</v>
       </c>
       <c r="U55" s="23">
-        <v>4410</v>
+        <v>4850</v>
       </c>
       <c r="V55" s="23">
-        <v>4570</v>
+        <v>5020</v>
       </c>
       <c r="W55" s="13">
-        <v>4570</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A56" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="23">
-        <v>2790</v>
+        <v>2090</v>
       </c>
       <c r="C56" s="13">
-        <v>2830</v>
+        <v>2190</v>
       </c>
       <c r="D56" s="13">
-        <v>3010</v>
+        <v>2250</v>
       </c>
       <c r="E56" s="13">
-        <v>3200</v>
+        <v>2320</v>
       </c>
       <c r="F56" s="13">
-        <v>3310</v>
+        <v>2320</v>
       </c>
       <c r="G56" s="13">
-        <v>3320</v>
+        <v>2290</v>
       </c>
       <c r="H56" s="13">
-        <v>3050</v>
+        <v>2120</v>
       </c>
       <c r="I56" s="13">
-        <v>3140</v>
+        <v>2100</v>
       </c>
       <c r="J56" s="13">
-        <v>3380</v>
+        <v>2240</v>
       </c>
       <c r="K56" s="13">
-        <v>3670</v>
+        <v>2470</v>
       </c>
       <c r="L56" s="13">
-        <v>3740</v>
+        <v>2690</v>
       </c>
       <c r="M56" s="13">
-        <v>3960</v>
+        <v>2930</v>
       </c>
       <c r="N56" s="13">
-        <v>4250</v>
+        <v>3220</v>
       </c>
       <c r="O56" s="13">
-        <v>4360</v>
+        <v>3340</v>
       </c>
       <c r="P56" s="13">
-        <v>4500</v>
+        <v>3580</v>
       </c>
       <c r="Q56" s="13">
-        <v>4680</v>
+        <v>3790</v>
       </c>
       <c r="R56" s="20">
-        <v>5190</v>
+        <v>4000</v>
       </c>
       <c r="S56" s="20">
-        <v>5410</v>
+        <v>4130</v>
       </c>
       <c r="T56" s="23">
-        <v>5640</v>
+        <v>4300</v>
       </c>
       <c r="U56" s="23">
-        <v>5840</v>
+        <v>4410</v>
       </c>
       <c r="V56" s="23">
-        <v>6070</v>
+        <v>4570</v>
       </c>
       <c r="W56" s="13">
-        <v>6320</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="57" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A57" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="23">
-        <v>3220</v>
+        <v>2790</v>
       </c>
       <c r="C57" s="13">
-        <v>3270</v>
+        <v>2830</v>
       </c>
       <c r="D57" s="13">
-        <v>3650</v>
+        <v>3010</v>
       </c>
       <c r="E57" s="13">
-        <v>4280</v>
+        <v>3200</v>
       </c>
       <c r="F57" s="13">
-        <v>4740</v>
+        <v>3310</v>
       </c>
       <c r="G57" s="13">
-        <v>4790</v>
+        <v>3320</v>
       </c>
       <c r="H57" s="13">
-        <v>4260</v>
+        <v>3050</v>
       </c>
       <c r="I57" s="13">
-        <v>4090</v>
+        <v>3140</v>
       </c>
       <c r="J57" s="13">
-        <v>4150</v>
+        <v>3380</v>
       </c>
       <c r="K57" s="13">
-        <v>4350</v>
+        <v>3670</v>
       </c>
       <c r="L57" s="13">
-        <v>4380</v>
+        <v>3740</v>
       </c>
       <c r="M57" s="13">
-        <v>4690</v>
+        <v>3960</v>
       </c>
       <c r="N57" s="13">
-        <v>5090</v>
+        <v>4250</v>
       </c>
       <c r="O57" s="13">
-        <v>5070</v>
+        <v>4360</v>
       </c>
       <c r="P57" s="13">
-        <v>5240</v>
+        <v>4500</v>
       </c>
       <c r="Q57" s="13">
-        <v>5250</v>
+        <v>4680</v>
       </c>
       <c r="R57" s="20">
-        <v>5390</v>
+        <v>5190</v>
       </c>
       <c r="S57" s="20">
-        <v>5470</v>
+        <v>5410</v>
       </c>
       <c r="T57" s="23">
-        <v>5480</v>
+        <v>5640</v>
       </c>
       <c r="U57" s="23">
-        <v>5420</v>
+        <v>5840</v>
       </c>
       <c r="V57" s="23">
-        <v>5150</v>
+        <v>6070</v>
       </c>
       <c r="W57" s="13">
-        <v>5470</v>
+        <v>6320</v>
       </c>
     </row>
     <row r="58" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A58" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="23">
+        <v>3220</v>
+      </c>
+      <c r="C58" s="13">
+        <v>3270</v>
+      </c>
+      <c r="D58" s="13">
+        <v>3650</v>
+      </c>
+      <c r="E58" s="13">
+        <v>4280</v>
+      </c>
+      <c r="F58" s="13">
+        <v>4740</v>
+      </c>
+      <c r="G58" s="13">
+        <v>4790</v>
+      </c>
+      <c r="H58" s="13">
+        <v>4260</v>
+      </c>
+      <c r="I58" s="13">
+        <v>4090</v>
+      </c>
+      <c r="J58" s="13">
+        <v>4150</v>
+      </c>
+      <c r="K58" s="13">
+        <v>4350</v>
+      </c>
+      <c r="L58" s="13">
+        <v>4380</v>
+      </c>
+      <c r="M58" s="13">
+        <v>4690</v>
+      </c>
+      <c r="N58" s="13">
+        <v>5090</v>
+      </c>
+      <c r="O58" s="13">
+        <v>5070</v>
+      </c>
+      <c r="P58" s="13">
+        <v>5240</v>
+      </c>
+      <c r="Q58" s="13">
+        <v>5250</v>
+      </c>
+      <c r="R58" s="20">
+        <v>5390</v>
+      </c>
+      <c r="S58" s="20">
+        <v>5470</v>
+      </c>
+      <c r="T58" s="23">
+        <v>5480</v>
+      </c>
+      <c r="U58" s="23">
+        <v>5420</v>
+      </c>
+      <c r="V58" s="23">
+        <v>5150</v>
+      </c>
+      <c r="W58" s="13">
+        <v>5470</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A59" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B58" s="23">
+      <c r="B59" s="23">
         <v>2960</v>
       </c>
-      <c r="C58" s="13">
+      <c r="C59" s="13">
         <v>3040</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="13">
         <v>3240</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="13">
         <v>3360</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>3360</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G59" s="13">
         <v>3310</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H59" s="13">
         <v>3030</v>
       </c>
-      <c r="I58" s="13">
+      <c r="I59" s="13">
         <v>2950</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J59" s="13">
         <v>3050</v>
       </c>
-      <c r="K58" s="13">
+      <c r="K59" s="13">
         <v>3270</v>
       </c>
-      <c r="L58" s="13">
+      <c r="L59" s="13">
         <v>3420</v>
       </c>
-      <c r="M58" s="13">
+      <c r="M59" s="13">
         <v>3720</v>
       </c>
-      <c r="N58" s="13">
+      <c r="N59" s="13">
         <v>4070</v>
       </c>
-      <c r="O58" s="13">
+      <c r="O59" s="13">
         <v>4340</v>
       </c>
-      <c r="P58" s="13">
+      <c r="P59" s="13">
         <v>4520</v>
       </c>
-      <c r="Q58" s="13">
+      <c r="Q59" s="13">
         <v>4700</v>
       </c>
-      <c r="R58" s="20">
+      <c r="R59" s="20">
         <v>4850</v>
       </c>
-      <c r="S58" s="20">
+      <c r="S59" s="20">
         <v>4960</v>
       </c>
-      <c r="T58" s="23">
+      <c r="T59" s="23">
         <v>5210</v>
       </c>
-      <c r="U58" s="23">
+      <c r="U59" s="23">
         <v>5470</v>
       </c>
-      <c r="V58" s="23">
+      <c r="V59" s="23">
         <v>5640</v>
       </c>
-      <c r="W58" s="13">
+      <c r="W59" s="13">
         <v>5680</v>
       </c>
     </row>
@@ -23448,7 +23518,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:XFD5"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -23460,33 +23530,33 @@
   <sheetData>
     <row r="1" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:23" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>118</v>
@@ -27358,33 +27428,33 @@
   <sheetData>
     <row r="1" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:23" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>118</v>
@@ -31258,34 +31328,34 @@
   <sheetData>
     <row r="1" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="66"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="B3" s="55"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:23" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>118</v>
@@ -35155,33 +35225,33 @@
   <sheetData>
     <row r="1" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:23" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>118</v>
@@ -39049,33 +39119,33 @@
   <sheetData>
     <row r="1" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
     </row>
     <row r="3" spans="1:23" s="32" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
     </row>
     <row r="4" spans="1:23" s="32" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="D4" s="34" t="s">
+      <c r="D4" s="33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:23" s="35" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:23" s="34" customFormat="1" ht="15" x14ac:dyDescent="0.2"/>
     <row r="6" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
         <v>118</v>
